--- a/capiq_data/in_process_data/IQ32052.xlsx
+++ b/capiq_data/in_process_data/IQ32052.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0220881C-ED90-4ABE-8F8B-C59969484773}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E83821-60AB-4DDF-AA5A-BF801CF7EFF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"14b1ddba-9a36-4324-b951-ded87a623587"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"2c5f7052-fbab-492e-b4e4-8751ecb97a83"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
+  </si>
+  <si>
+    <t>FQ22011</t>
   </si>
   <si>
     <t>FQ32011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40571</v>
+        <v>36917</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>186.4</v>
+        <v>34.070999999999998</v>
       </c>
       <c r="D2">
-        <v>1289.5999999999999</v>
+        <v>288.40899999999999</v>
       </c>
       <c r="E2">
-        <v>541.5</v>
+        <v>222.55500000000001</v>
       </c>
       <c r="F2">
-        <v>846.2</v>
+        <v>174.64599999999999</v>
       </c>
       <c r="G2">
-        <v>5598.7</v>
+        <v>650.07299999999998</v>
       </c>
       <c r="H2">
-        <v>7763.4</v>
+        <v>1038.8679999999999</v>
       </c>
       <c r="I2">
-        <v>183.6</v>
+        <v>80.724999999999994</v>
       </c>
       <c r="J2">
-        <v>1137.7</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1942.4</v>
+        <v>243.47800000000001</v>
       </c>
       <c r="O2">
-        <v>4250</v>
+        <v>249.601</v>
       </c>
       <c r="P2">
-        <v>1137.7</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>148.30000000000001</v>
+        <v>-91.447000000000003</v>
       </c>
       <c r="R2">
-        <v>40571</v>
+        <v>36917</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>3513.4</v>
+        <v>789.26700000000005</v>
       </c>
       <c r="U2">
-        <v>1919.4</v>
+        <v>214.38399999999999</v>
       </c>
       <c r="V2">
-        <v>354.4</v>
+        <v>31.658999999999999</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>100</v>
+        <v>-99.960999999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-240.7</v>
+        <v>2.42</v>
       </c>
       <c r="AA2">
-        <v>186.4</v>
+        <v>34.070999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40662</v>
+        <v>37011</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>160.6</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="D3">
-        <v>1428.3</v>
+        <v>225.84100000000001</v>
       </c>
       <c r="E3">
-        <v>742.6</v>
+        <v>186.95599999999999</v>
       </c>
       <c r="F3">
-        <v>928.2</v>
+        <v>126.66800000000001</v>
       </c>
       <c r="G3">
-        <v>6365.2</v>
+        <v>635.51700000000005</v>
       </c>
       <c r="H3">
-        <v>8498.7999999999993</v>
+        <v>1036.252</v>
       </c>
       <c r="I3">
-        <v>232.8</v>
+        <v>53.493000000000002</v>
       </c>
       <c r="J3">
-        <v>114.6</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -855,78 +975,78 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3372.8</v>
+        <v>218.773</v>
       </c>
       <c r="O3">
-        <v>4768.6000000000004</v>
+        <v>231.804</v>
       </c>
       <c r="P3">
-        <v>1265</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>837.9</v>
+        <v>57.546999999999997</v>
       </c>
       <c r="R3">
-        <v>40662</v>
+        <v>37011</v>
       </c>
       <c r="S3">
-        <v>10212</v>
+        <v>2403</v>
       </c>
       <c r="T3">
-        <v>3730.2</v>
+        <v>804.44799999999998</v>
       </c>
       <c r="U3">
-        <v>2757.3</v>
+        <v>271.93099999999998</v>
       </c>
       <c r="V3">
-        <v>458.8</v>
+        <v>39.006</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>75.2</v>
+        <v>9.9830000000000005</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>417</v>
+        <v>32.302</v>
       </c>
       <c r="AA3">
-        <v>160.6</v>
+        <v>0.47899999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40753</v>
+        <v>37099</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>139.5</v>
+        <v>-0.51300000000000001</v>
       </c>
       <c r="D4">
-        <v>1458.2</v>
+        <v>200.42599999999999</v>
       </c>
       <c r="E4">
-        <v>597</v>
+        <v>155.166</v>
       </c>
       <c r="F4">
-        <v>896.9</v>
+        <v>112.349</v>
       </c>
       <c r="G4">
-        <v>5837.6</v>
+        <v>611.428</v>
       </c>
       <c r="H4">
-        <v>8445.7999999999993</v>
+        <v>1010.159</v>
       </c>
       <c r="I4">
-        <v>250.8</v>
+        <v>48.207999999999998</v>
       </c>
       <c r="J4">
-        <v>101.9</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3171.2</v>
+        <v>174.441</v>
       </c>
       <c r="O4">
-        <v>4620.8999999999996</v>
+        <v>191.35</v>
       </c>
       <c r="P4">
-        <v>1265</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>-214.1</v>
+        <v>-32.643999999999998</v>
       </c>
       <c r="R4">
-        <v>40753</v>
+        <v>37099</v>
       </c>
       <c r="S4">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>3824.9</v>
+        <v>818.80899999999997</v>
       </c>
       <c r="U4">
-        <v>2543.1999999999998</v>
+        <v>239.28700000000001</v>
       </c>
       <c r="V4">
-        <v>240.6</v>
+        <v>5.8780000000000001</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-121</v>
+        <v>6.9180000000000001</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>245.8</v>
+        <v>-38.618000000000002</v>
       </c>
       <c r="AA4">
-        <v>139.5</v>
+        <v>-0.51300000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40844</v>
+        <v>37190</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>165.6</v>
+        <v>-11.211</v>
       </c>
       <c r="D5">
-        <v>1507</v>
+        <v>194.715</v>
       </c>
       <c r="E5">
-        <v>625.20000000000005</v>
+        <v>172.32900000000001</v>
       </c>
       <c r="F5">
-        <v>913</v>
+        <v>113.73099999999999</v>
       </c>
       <c r="G5">
-        <v>5830</v>
+        <v>588.14300000000003</v>
       </c>
       <c r="H5">
-        <v>8504.1</v>
+        <v>1035.7760000000001</v>
       </c>
       <c r="I5">
-        <v>273.2</v>
+        <v>48.576999999999998</v>
       </c>
       <c r="J5">
-        <v>1175.8</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2122.3000000000002</v>
+        <v>200.066</v>
       </c>
       <c r="O5">
-        <v>4701.1000000000004</v>
+        <v>220.82400000000001</v>
       </c>
       <c r="P5">
-        <v>1175.8</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-274.2</v>
+        <v>-61.527000000000001</v>
       </c>
       <c r="R5">
-        <v>40844</v>
+        <v>37190</v>
       </c>
       <c r="S5">
-        <v>11500</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>3803</v>
+        <v>814.952</v>
       </c>
       <c r="U5">
-        <v>2269</v>
+        <v>177.76</v>
       </c>
       <c r="V5">
-        <v>370.2</v>
+        <v>35.628</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-340.8</v>
+        <v>-59.746000000000002</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-205.4</v>
+        <v>-26.565999999999999</v>
       </c>
       <c r="AA5">
-        <v>165.6</v>
+        <v>-11.211</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40935</v>
+        <v>37281</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>119.6</v>
+        <v>6.984</v>
       </c>
       <c r="D6">
-        <v>1565.5</v>
+        <v>198.34899999999999</v>
       </c>
       <c r="E6">
-        <v>685.4</v>
+        <v>139.02600000000001</v>
       </c>
       <c r="F6">
-        <v>908.5</v>
+        <v>123.337</v>
       </c>
       <c r="G6">
-        <v>6167.7</v>
+        <v>629.73299999999995</v>
       </c>
       <c r="H6">
-        <v>8821.6</v>
+        <v>1056.376</v>
       </c>
       <c r="I6">
-        <v>220.2</v>
+        <v>35.037999999999997</v>
       </c>
       <c r="J6">
-        <v>1188.8</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2157.5</v>
+        <v>192.822</v>
       </c>
       <c r="O6">
-        <v>4780.1000000000004</v>
+        <v>218.577</v>
       </c>
       <c r="P6">
-        <v>1188.8</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>151.9</v>
+        <v>37.725000000000001</v>
       </c>
       <c r="R6">
-        <v>40935</v>
+        <v>37281</v>
       </c>
       <c r="S6">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>4041.5</v>
+        <v>837.79899999999998</v>
       </c>
       <c r="U6">
-        <v>2420.9</v>
+        <v>215.48500000000001</v>
       </c>
       <c r="V6">
-        <v>269.2</v>
+        <v>46.691000000000003</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>46.6</v>
+        <v>26.806000000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-61.6</v>
+        <v>-30.952000000000002</v>
       </c>
       <c r="AA6">
-        <v>119.6</v>
+        <v>6.984</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>41026</v>
+        <v>37376</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>180.7</v>
+        <v>7.7729999999999997</v>
       </c>
       <c r="D7">
-        <v>1702.5</v>
+        <v>204.87899999999999</v>
       </c>
       <c r="E7">
-        <v>830.9</v>
+        <v>146.511</v>
       </c>
       <c r="F7">
-        <v>995</v>
+        <v>125.38</v>
       </c>
       <c r="G7">
-        <v>6826.5</v>
+        <v>679.12800000000004</v>
       </c>
       <c r="H7">
-        <v>9532.2999999999993</v>
+        <v>1108.806</v>
       </c>
       <c r="I7">
-        <v>233.1</v>
+        <v>40.243000000000002</v>
       </c>
       <c r="J7">
-        <v>62.6</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,75 +1307,75 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3519.8</v>
+        <v>215.56</v>
       </c>
       <c r="O7">
-        <v>5238.7</v>
+        <v>250.33</v>
       </c>
       <c r="P7">
-        <v>1264.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>-871.1</v>
+        <v>-4.7290000000000001</v>
       </c>
       <c r="R7">
-        <v>41026</v>
+        <v>37376</v>
       </c>
       <c r="S7">
-        <v>12149</v>
+        <v>2280</v>
       </c>
       <c r="T7">
-        <v>4293.6000000000004</v>
+        <v>858.476</v>
       </c>
       <c r="U7">
-        <v>1549.8</v>
+        <v>210.756</v>
       </c>
       <c r="V7">
-        <v>582.6</v>
+        <v>55.695999999999998</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>71.599999999999994</v>
+        <v>256.24099999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-1403.7</v>
+        <v>-54.912999999999997</v>
       </c>
       <c r="AA7">
-        <v>180.7</v>
+        <v>7.7729999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41117</v>
+        <v>37463</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>63.8</v>
+        <v>16.164999999999999</v>
       </c>
       <c r="D8">
-        <v>1444.6</v>
+        <v>206.828</v>
       </c>
       <c r="E8">
-        <v>584.20000000000005</v>
+        <v>140.386</v>
       </c>
       <c r="F8">
-        <v>850.1</v>
+        <v>127.715</v>
       </c>
       <c r="G8">
-        <v>6740.8</v>
+        <v>704.60599999999999</v>
       </c>
       <c r="H8">
-        <v>9406</v>
+        <v>1139.729</v>
       </c>
       <c r="I8">
-        <v>275.60000000000002</v>
+        <v>40.783999999999999</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1270,75 +1390,75 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3459.9</v>
+        <v>213.99700000000001</v>
       </c>
       <c r="O8">
-        <v>5030.3</v>
+        <v>252.49299999999999</v>
       </c>
       <c r="P8">
-        <v>1215.8</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>-20.399999999999999</v>
+        <v>40.981000000000002</v>
       </c>
       <c r="R8">
-        <v>41117</v>
+        <v>37463</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>4375.7</v>
+        <v>887.23599999999999</v>
       </c>
       <c r="U8">
-        <v>1529.4</v>
+        <v>251.73699999999999</v>
       </c>
       <c r="V8">
-        <v>229.2</v>
+        <v>26.890999999999998</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-112.1</v>
+        <v>10.31</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-66.099999999999994</v>
+        <v>18.204999999999998</v>
       </c>
       <c r="AA8">
-        <v>63.8</v>
+        <v>16.164999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41208</v>
+        <v>37554</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>109.6</v>
+        <v>15.813000000000001</v>
       </c>
       <c r="D9">
-        <v>1541.2</v>
+        <v>215.17099999999999</v>
       </c>
       <c r="E9">
-        <v>615</v>
+        <v>154.80799999999999</v>
       </c>
       <c r="F9">
-        <v>913.9</v>
+        <v>132.99</v>
       </c>
       <c r="G9">
-        <v>6887.7</v>
+        <v>742.56899999999996</v>
       </c>
       <c r="H9">
-        <v>9553.9</v>
+        <v>1184.126</v>
       </c>
       <c r="I9">
-        <v>246.6</v>
+        <v>46.198</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3573.7</v>
+        <v>235.12200000000001</v>
       </c>
       <c r="O9">
-        <v>5151.7</v>
+        <v>278.77199999999999</v>
       </c>
       <c r="P9">
-        <v>1229.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>287.39999999999998</v>
+        <v>-21.74</v>
       </c>
       <c r="R9">
-        <v>41208</v>
+        <v>37554</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>4402.2</v>
+        <v>905.35400000000004</v>
       </c>
       <c r="U9">
-        <v>1816.8</v>
+        <v>229.99700000000001</v>
       </c>
       <c r="V9">
-        <v>336.4</v>
+        <v>37.628</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-147.80000000000001</v>
+        <v>1.659</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>159.5</v>
+        <v>-43.963999999999999</v>
       </c>
       <c r="AA9">
-        <v>109.6</v>
+        <v>15.813000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41299</v>
+        <v>37645</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>158.1</v>
+        <v>19.670999999999999</v>
       </c>
       <c r="D10">
-        <v>1630.1</v>
+        <v>228.464</v>
       </c>
       <c r="E10">
-        <v>633.79999999999995</v>
+        <v>169.15199999999999</v>
       </c>
       <c r="F10">
-        <v>964.9</v>
+        <v>138.68799999999999</v>
       </c>
       <c r="G10">
-        <v>8048.6</v>
+        <v>797.88699999999994</v>
       </c>
       <c r="H10">
-        <v>10865.9</v>
+        <v>1261.2170000000001</v>
       </c>
       <c r="I10">
-        <v>221.2</v>
+        <v>38.115000000000002</v>
       </c>
       <c r="J10">
-        <v>994.3</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3621</v>
+        <v>271.03500000000003</v>
       </c>
       <c r="O10">
-        <v>6240.9</v>
+        <v>321.50799999999998</v>
       </c>
       <c r="P10">
-        <v>2237.6</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1264.9000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="R10">
-        <v>41299</v>
+        <v>37645</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>4625</v>
+        <v>939.70899999999995</v>
       </c>
       <c r="U10">
-        <v>3081.7</v>
+        <v>230.089</v>
       </c>
       <c r="V10">
-        <v>365.1</v>
+        <v>38.408000000000001</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>985</v>
+        <v>12.368</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>110.7</v>
+        <v>-36.267000000000003</v>
       </c>
       <c r="AA10">
-        <v>158.1</v>
+        <v>19.670999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41390</v>
+        <v>37741</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>173.8</v>
+        <v>24.823</v>
       </c>
       <c r="D11">
-        <v>1716.5</v>
+        <v>241.60499999999999</v>
       </c>
       <c r="E11">
-        <v>800.9</v>
+        <v>151.637</v>
       </c>
       <c r="F11">
-        <v>1032.2</v>
+        <v>147.03299999999999</v>
       </c>
       <c r="G11">
-        <v>8418.2000000000007</v>
+        <v>853.49199999999996</v>
       </c>
       <c r="H11">
-        <v>11242.4</v>
+        <v>1319.173</v>
       </c>
       <c r="I11">
-        <v>259.7</v>
+        <v>39.6</v>
       </c>
       <c r="J11">
-        <v>994.6</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,78 +1639,78 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3830.6</v>
+        <v>265.01600000000002</v>
       </c>
       <c r="O11">
-        <v>6524.9</v>
+        <v>331.81599999999997</v>
       </c>
       <c r="P11">
-        <v>2252.4</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>195.4</v>
+        <v>54.072000000000003</v>
       </c>
       <c r="R11">
-        <v>41390</v>
+        <v>37741</v>
       </c>
       <c r="S11">
-        <v>13060</v>
+        <v>2345</v>
       </c>
       <c r="T11">
-        <v>4717.5</v>
+        <v>987.35699999999997</v>
       </c>
       <c r="U11">
-        <v>3277.1</v>
+        <v>284.161</v>
       </c>
       <c r="V11">
-        <v>455.6</v>
+        <v>92.322999999999993</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-146.19999999999999</v>
+        <v>4.9119999999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-27.1</v>
+        <v>-27.798999999999999</v>
       </c>
       <c r="AA11">
-        <v>173.8</v>
+        <v>24.823</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41481</v>
+        <v>37834</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>81.599999999999994</v>
+        <v>27.073</v>
       </c>
       <c r="D12">
-        <v>1516.2</v>
+        <v>260.50900000000001</v>
       </c>
       <c r="E12">
-        <v>533.29999999999995</v>
+        <v>142.29</v>
       </c>
       <c r="F12">
-        <v>909.6</v>
+        <v>156.12299999999999</v>
       </c>
       <c r="G12">
-        <v>6201.6</v>
+        <v>881.22</v>
       </c>
       <c r="H12">
-        <v>9017.9</v>
+        <v>1357.3510000000001</v>
       </c>
       <c r="I12">
-        <v>218.7</v>
+        <v>41.802</v>
       </c>
       <c r="J12">
-        <v>994.8</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1599,81 +1719,81 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>-1264.9000000000001</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>2330.1</v>
+        <v>260.62900000000002</v>
       </c>
       <c r="O12">
-        <v>4999.8999999999996</v>
+        <v>342.91800000000001</v>
       </c>
       <c r="P12">
-        <v>994.8</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>-1480.3</v>
+        <v>36.518000000000001</v>
       </c>
       <c r="R12">
-        <v>41481</v>
+        <v>37834</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>4018</v>
+        <v>1014.433</v>
       </c>
       <c r="U12">
-        <v>1796.8</v>
+        <v>320.67899999999997</v>
       </c>
       <c r="V12">
-        <v>285.8</v>
+        <v>56.776000000000003</v>
       </c>
       <c r="W12">
-        <v>-51.4</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-2084.6999999999998</v>
+        <v>-2.569</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>390</v>
+        <v>3.5390000000000001</v>
       </c>
       <c r="AA12">
-        <v>81.599999999999994</v>
+        <v>27.073</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41572</v>
+        <v>37925</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>166.8</v>
+        <v>48.412999999999997</v>
       </c>
       <c r="D13">
-        <v>1549.9</v>
+        <v>275.55</v>
       </c>
       <c r="E13">
-        <v>590.4</v>
+        <v>160.86099999999999</v>
       </c>
       <c r="F13">
-        <v>965.2</v>
+        <v>165.06299999999999</v>
       </c>
       <c r="G13">
-        <v>6420</v>
+        <v>971.69399999999996</v>
       </c>
       <c r="H13">
-        <v>9197.4</v>
+        <v>1443.8579999999999</v>
       </c>
       <c r="I13">
-        <v>223.8</v>
+        <v>41.054000000000002</v>
       </c>
       <c r="J13">
-        <v>995</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2408.6999999999998</v>
+        <v>270.37799999999999</v>
       </c>
       <c r="O13">
-        <v>5077</v>
+        <v>358.642</v>
       </c>
       <c r="P13">
-        <v>995</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>463.7</v>
+        <v>-5.6189999999999998</v>
       </c>
       <c r="R13">
-        <v>41572</v>
+        <v>37925</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>4120.3999999999996</v>
+        <v>1085.2159999999999</v>
       </c>
       <c r="U13">
-        <v>2260.5</v>
+        <v>315.06</v>
       </c>
       <c r="V13">
-        <v>362.5</v>
+        <v>70.742999999999995</v>
       </c>
       <c r="W13">
-        <v>-51.3</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-155.19999999999999</v>
+        <v>10.922000000000001</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>282.10000000000002</v>
+        <v>-77.561000000000007</v>
       </c>
       <c r="AA13">
-        <v>166.8</v>
+        <v>48.412999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41663</v>
+        <v>38016</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>192.1</v>
+        <v>40.152000000000001</v>
       </c>
       <c r="D14">
-        <v>1610</v>
+        <v>297.28699999999998</v>
       </c>
       <c r="E14">
-        <v>584.29999999999995</v>
+        <v>194.274</v>
       </c>
       <c r="F14">
-        <v>1002.3</v>
+        <v>180.12299999999999</v>
       </c>
       <c r="G14">
-        <v>6229.4</v>
+        <v>1081.508</v>
       </c>
       <c r="H14">
-        <v>9000.6</v>
+        <v>1567.3150000000001</v>
       </c>
       <c r="I14">
-        <v>186.6</v>
+        <v>43</v>
       </c>
       <c r="J14">
-        <v>995.2</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2423.8000000000002</v>
+        <v>290.298</v>
       </c>
       <c r="O14">
-        <v>5084.7</v>
+        <v>389.28500000000003</v>
       </c>
       <c r="P14">
-        <v>995.2</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>-107.8</v>
+        <v>9.8170000000000002</v>
       </c>
       <c r="R14">
-        <v>41663</v>
+        <v>38016</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>3915.9</v>
+        <v>1178.03</v>
       </c>
       <c r="U14">
-        <v>2152.6999999999998</v>
+        <v>263.64400000000001</v>
       </c>
       <c r="V14">
-        <v>331.8</v>
+        <v>50.198</v>
       </c>
       <c r="W14">
-        <v>-50.4</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-467.4</v>
+        <v>17.998000000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>90.6</v>
+        <v>-44.811</v>
       </c>
       <c r="AA14">
-        <v>192.1</v>
+        <v>40.152000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41754</v>
+        <v>38107</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>197</v>
+        <v>36.448999999999998</v>
       </c>
       <c r="D15">
-        <v>1649</v>
+        <v>336.964</v>
       </c>
       <c r="E15">
-        <v>855.9</v>
+        <v>193.94200000000001</v>
       </c>
       <c r="F15">
-        <v>1042</v>
+        <v>203.21199999999999</v>
       </c>
       <c r="G15">
-        <v>6471.3</v>
+        <v>1089.2360000000001</v>
       </c>
       <c r="H15">
-        <v>9213.7999999999993</v>
+        <v>1877.2660000000001</v>
       </c>
       <c r="I15">
-        <v>247</v>
+        <v>52.719000000000001</v>
       </c>
       <c r="J15">
-        <v>990.1</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,78 +1971,78 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2694.6</v>
+        <v>344.22300000000001</v>
       </c>
       <c r="O15">
-        <v>5427.3</v>
+        <v>461.41800000000001</v>
       </c>
       <c r="P15">
-        <v>990.1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>138.30000000000001</v>
+        <v>-40.253999999999998</v>
       </c>
       <c r="R15">
-        <v>41754</v>
+        <v>38107</v>
       </c>
       <c r="S15">
-        <v>12490</v>
+        <v>2844</v>
       </c>
       <c r="T15">
-        <v>3786.5</v>
+        <v>1415.848</v>
       </c>
       <c r="U15">
-        <v>2291</v>
+        <v>92.328000000000003</v>
       </c>
       <c r="V15">
-        <v>369.5</v>
+        <v>135.29499999999999</v>
       </c>
       <c r="W15">
-        <v>-49.2</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-396.7</v>
+        <v>-80.974999999999994</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>212.3</v>
+        <v>-72.635000000000005</v>
       </c>
       <c r="AA15">
-        <v>197</v>
+        <v>36.448999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41845</v>
+        <v>38198</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>88</v>
+        <v>46.862000000000002</v>
       </c>
       <c r="D16">
-        <v>1489</v>
+        <v>358.42099999999999</v>
       </c>
       <c r="E16">
-        <v>585.4</v>
+        <v>199.74600000000001</v>
       </c>
       <c r="F16">
-        <v>938</v>
+        <v>214.958</v>
       </c>
       <c r="G16">
-        <v>6748.1</v>
+        <v>1125.106</v>
       </c>
       <c r="H16">
-        <v>9472.4</v>
+        <v>1921.087</v>
       </c>
       <c r="I16">
-        <v>183.1</v>
+        <v>51.691000000000003</v>
       </c>
       <c r="J16">
-        <v>1494.1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2400.9</v>
+        <v>347.30500000000001</v>
       </c>
       <c r="O16">
-        <v>5635.7</v>
+        <v>478.447</v>
       </c>
       <c r="P16">
-        <v>1494.1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>741</v>
+        <v>10.894</v>
       </c>
       <c r="R16">
-        <v>41845</v>
+        <v>38198</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>3836.7</v>
+        <v>1442.64</v>
       </c>
       <c r="U16">
-        <v>3031.6</v>
+        <v>228.04499999999999</v>
       </c>
       <c r="V16">
-        <v>216</v>
+        <v>76.668000000000006</v>
       </c>
       <c r="W16">
-        <v>-53</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>392</v>
+        <v>-24.54</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>191</v>
+        <v>-9.3030000000000008</v>
       </c>
       <c r="AA16">
-        <v>88</v>
+        <v>46.862000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41936</v>
+        <v>38289</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>160</v>
+        <v>55.329000000000001</v>
       </c>
       <c r="D17">
-        <v>1543</v>
+        <v>375.17599999999999</v>
       </c>
       <c r="E17">
-        <v>632.70000000000005</v>
+        <v>219.27600000000001</v>
       </c>
       <c r="F17">
-        <v>983</v>
+        <v>231.161</v>
       </c>
       <c r="G17">
-        <v>6489.1</v>
+        <v>1232.8119999999999</v>
       </c>
       <c r="H17">
-        <v>9177.5</v>
+        <v>2032.2909999999999</v>
       </c>
       <c r="I17">
-        <v>210.3</v>
+        <v>57.773000000000003</v>
       </c>
       <c r="J17">
-        <v>1494.4</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2491</v>
+        <v>389.529</v>
       </c>
       <c r="O17">
-        <v>5716.2</v>
+        <v>533.89099999999996</v>
       </c>
       <c r="P17">
-        <v>1494.4</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>-127</v>
+        <v>17.321999999999999</v>
       </c>
       <c r="R17">
-        <v>41936</v>
+        <v>38289</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>3461.3</v>
+        <v>1498.4</v>
       </c>
       <c r="U17">
-        <v>2905.2</v>
+        <v>257.34399999999999</v>
       </c>
       <c r="V17">
-        <v>381</v>
+        <v>119.875</v>
       </c>
       <c r="W17">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-605</v>
+        <v>-11.798999999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>170</v>
+        <v>-76.045000000000002</v>
       </c>
       <c r="AA17">
-        <v>160</v>
+        <v>55.329000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42027</v>
+        <v>38380</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>177</v>
+        <v>60.127000000000002</v>
       </c>
       <c r="D18">
-        <v>1551</v>
+        <v>412.70600000000002</v>
       </c>
       <c r="E18">
-        <v>666.3</v>
+        <v>234.339</v>
       </c>
       <c r="F18">
-        <v>977</v>
+        <v>252.13399999999999</v>
       </c>
       <c r="G18">
-        <v>6554.6</v>
+        <v>1448.8209999999999</v>
       </c>
       <c r="H18">
-        <v>9234.7000000000007</v>
+        <v>2243.7660000000001</v>
       </c>
       <c r="I18">
-        <v>194.2</v>
+        <v>68.501000000000005</v>
       </c>
       <c r="J18">
-        <v>1494.7</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2491.3000000000002</v>
+        <v>449.37099999999998</v>
       </c>
       <c r="O18">
-        <v>5726.7</v>
+        <v>615.23599999999999</v>
       </c>
       <c r="P18">
-        <v>1494.7</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>-365</v>
+        <v>60.829000000000001</v>
       </c>
       <c r="R18">
-        <v>42027</v>
+        <v>38380</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>3508</v>
+        <v>1628.53</v>
       </c>
       <c r="U18">
-        <v>2539.6999999999998</v>
+        <v>181.37299999999999</v>
       </c>
       <c r="V18">
-        <v>275</v>
+        <v>148.09200000000001</v>
       </c>
       <c r="W18">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-176</v>
+        <v>56.762999999999998</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-320</v>
+        <v>-127.605</v>
       </c>
       <c r="AA18">
-        <v>177</v>
+        <v>60.127000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42118</v>
+        <v>38472</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>135</v>
+        <v>63.436</v>
       </c>
       <c r="D19">
-        <v>1540</v>
+        <v>451.82799999999997</v>
       </c>
       <c r="E19">
-        <v>779</v>
+        <v>296.88499999999999</v>
       </c>
       <c r="F19">
-        <v>935</v>
+        <v>276.79500000000002</v>
       </c>
       <c r="G19">
-        <v>6773</v>
+        <v>1575.8889999999999</v>
       </c>
       <c r="H19">
-        <v>9401</v>
+        <v>2372.6469999999999</v>
       </c>
       <c r="I19">
-        <v>284</v>
+        <v>83.572000000000003</v>
       </c>
       <c r="J19">
-        <v>1487</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2183,78 +2303,78 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2709</v>
+        <v>520.18899999999996</v>
       </c>
       <c r="O19">
-        <v>5987</v>
+        <v>711.84299999999996</v>
       </c>
       <c r="P19">
-        <v>1487</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>-618</v>
+        <v>12.169</v>
       </c>
       <c r="R19">
-        <v>42118</v>
+        <v>38472</v>
       </c>
       <c r="S19">
-        <v>12810</v>
+        <v>3801</v>
       </c>
       <c r="T19">
-        <v>3414</v>
+        <v>1660.8040000000001</v>
       </c>
       <c r="U19">
-        <v>1922</v>
+        <v>193.542</v>
       </c>
       <c r="V19">
-        <v>396</v>
+        <v>117.483</v>
       </c>
       <c r="W19">
-        <v>-51</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-286</v>
+        <v>-32.527000000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-686</v>
+        <v>-53.936</v>
       </c>
       <c r="AA19">
-        <v>135</v>
+        <v>63.436</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42216</v>
+        <v>38562</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>-30</v>
+        <v>60.12</v>
       </c>
       <c r="D20">
-        <v>1335</v>
+        <v>448.40300000000002</v>
       </c>
       <c r="E20">
-        <v>415</v>
+        <v>239.01499999999999</v>
       </c>
       <c r="F20">
-        <v>816</v>
+        <v>273.48599999999999</v>
       </c>
       <c r="G20">
-        <v>6119</v>
+        <v>1562.317</v>
       </c>
       <c r="H20">
-        <v>8697</v>
+        <v>2396.663</v>
       </c>
       <c r="I20">
-        <v>249</v>
+        <v>80.578999999999994</v>
       </c>
       <c r="J20">
-        <v>1488</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2480</v>
+        <v>495.78800000000001</v>
       </c>
       <c r="O20">
-        <v>5697</v>
+        <v>705.83299999999997</v>
       </c>
       <c r="P20">
-        <v>1488</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>402</v>
+        <v>38.042999999999999</v>
       </c>
       <c r="R20">
-        <v>42216</v>
+        <v>38562</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3000</v>
+        <v>1690.83</v>
       </c>
       <c r="U20">
-        <v>2324</v>
+        <v>231.58500000000001</v>
       </c>
       <c r="V20">
-        <v>129</v>
+        <v>138.96</v>
       </c>
       <c r="W20">
-        <v>-54</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-464</v>
+        <v>-45.198999999999998</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>778</v>
+        <v>-9.0229999999999997</v>
       </c>
       <c r="AA20">
-        <v>-30</v>
+        <v>60.12</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42307</v>
+        <v>38653</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>114</v>
+        <v>70.718000000000004</v>
       </c>
       <c r="D21">
-        <v>1445</v>
+        <v>483.06200000000001</v>
       </c>
       <c r="E21">
-        <v>587</v>
+        <v>325.85500000000002</v>
       </c>
       <c r="F21">
-        <v>884</v>
+        <v>299.09199999999998</v>
       </c>
       <c r="G21">
-        <v>6081</v>
+        <v>1545.567</v>
       </c>
       <c r="H21">
-        <v>8635</v>
+        <v>2650.471</v>
       </c>
       <c r="I21">
-        <v>226</v>
+        <v>93.37</v>
       </c>
       <c r="J21">
-        <v>1489</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2453</v>
+        <v>575.87</v>
       </c>
       <c r="O21">
-        <v>5648</v>
+        <v>806.85799999999995</v>
       </c>
       <c r="P21">
-        <v>1489</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>-126</v>
+        <v>-9.8719999999999999</v>
       </c>
       <c r="R21">
-        <v>42307</v>
+        <v>38653</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>2987</v>
+        <v>1843.6130000000001</v>
       </c>
       <c r="U21">
-        <v>2198</v>
+        <v>221.71299999999999</v>
       </c>
       <c r="V21">
-        <v>145</v>
+        <v>102.47499999999999</v>
       </c>
       <c r="W21">
-        <v>-53</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-230</v>
+        <v>-127.47799999999999</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>10</v>
+        <v>86.978999999999999</v>
       </c>
       <c r="AA21">
-        <v>114</v>
+        <v>70.718000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42398</v>
+        <v>38744</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>153</v>
+        <v>76.393000000000001</v>
       </c>
       <c r="D22">
-        <v>1386</v>
+        <v>537.03099999999995</v>
       </c>
       <c r="E22">
-        <v>585</v>
+        <v>367.49</v>
       </c>
       <c r="F22">
-        <v>855</v>
+        <v>327.024</v>
       </c>
       <c r="G22">
-        <v>6064</v>
+        <v>1643.818</v>
       </c>
       <c r="H22">
-        <v>8785</v>
+        <v>2769.95</v>
       </c>
       <c r="I22">
-        <v>175</v>
+        <v>99.72</v>
       </c>
       <c r="J22">
-        <v>1490</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,81 +2552,81 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2476</v>
+        <v>654.74699999999996</v>
       </c>
       <c r="O22">
-        <v>5676</v>
+        <v>914.702</v>
       </c>
       <c r="P22">
-        <v>1490</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>297</v>
+        <v>-33.588000000000001</v>
       </c>
       <c r="R22">
-        <v>42398</v>
+        <v>38744</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>3109</v>
+        <v>1855.248</v>
       </c>
       <c r="U22">
-        <v>2495</v>
+        <v>188.125</v>
       </c>
       <c r="V22">
-        <v>355</v>
+        <v>140.91900000000001</v>
       </c>
       <c r="W22">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-96</v>
+        <v>-76.539000000000001</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>91</v>
+        <v>-63.725999999999999</v>
       </c>
       <c r="AA22">
-        <v>153</v>
+        <v>76.393000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42489</v>
+        <v>38835</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>-8</v>
+        <v>59.220999999999997</v>
       </c>
       <c r="D23">
-        <v>1380</v>
+        <v>597.96100000000001</v>
       </c>
       <c r="E23">
-        <v>813</v>
+        <v>415.29500000000002</v>
       </c>
       <c r="F23">
-        <v>818</v>
+        <v>356.85899999999998</v>
       </c>
       <c r="G23">
-        <v>6448</v>
+        <v>2033.21</v>
       </c>
       <c r="H23">
-        <v>10037</v>
+        <v>3260.9650000000001</v>
       </c>
       <c r="I23">
-        <v>254</v>
+        <v>101.27800000000001</v>
       </c>
       <c r="J23">
-        <v>1490</v>
+        <v>133.78899999999999</v>
       </c>
       <c r="K23">
-        <v>849</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,161 +2635,161 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>3662</v>
+        <v>917.16300000000001</v>
       </c>
       <c r="O23">
-        <v>7156</v>
+        <v>1337.5119999999999</v>
       </c>
       <c r="P23">
-        <v>2358</v>
+        <v>300</v>
       </c>
       <c r="Q23">
-        <v>373</v>
+        <v>273.13099999999997</v>
       </c>
       <c r="R23">
-        <v>42489</v>
+        <v>38835</v>
       </c>
       <c r="S23">
-        <v>12030</v>
+        <v>4976</v>
       </c>
       <c r="T23">
-        <v>2881</v>
+        <v>1923.453</v>
       </c>
       <c r="U23">
-        <v>2868</v>
+        <v>461.25599999999997</v>
       </c>
       <c r="V23">
-        <v>345</v>
+        <v>171.928</v>
       </c>
       <c r="W23">
-        <v>-51</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>681</v>
+        <v>291.99099999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>103</v>
+        <v>-151.92400000000001</v>
       </c>
       <c r="AA23">
-        <v>-8</v>
+        <v>59.220999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42580</v>
+        <v>38926</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>64</v>
+        <v>54.67</v>
       </c>
       <c r="D24">
-        <v>1294</v>
+        <v>621.28800000000001</v>
       </c>
       <c r="E24">
-        <v>501</v>
+        <v>376.92</v>
       </c>
       <c r="F24">
-        <v>797</v>
+        <v>373.07</v>
       </c>
       <c r="G24">
-        <v>5223</v>
+        <v>1930.319</v>
       </c>
       <c r="H24">
-        <v>8787</v>
+        <v>3180.6689999999999</v>
       </c>
       <c r="I24">
-        <v>239</v>
+        <v>99.927000000000007</v>
       </c>
       <c r="J24">
-        <v>1491</v>
+        <v>108.78</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>-850</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>-27.866</v>
       </c>
       <c r="N24">
-        <v>2524</v>
+        <v>886.50800000000004</v>
       </c>
       <c r="O24">
-        <v>5995</v>
+        <v>1309.8420000000001</v>
       </c>
       <c r="P24">
-        <v>1491</v>
+        <v>272.13400000000001</v>
       </c>
       <c r="Q24">
-        <v>-574</v>
+        <v>-18.927</v>
       </c>
       <c r="R24">
-        <v>42580</v>
+        <v>38926</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2792</v>
+        <v>1870.827</v>
       </c>
       <c r="U24">
-        <v>2294</v>
+        <v>442.32900000000001</v>
       </c>
       <c r="V24">
-        <v>228</v>
+        <v>164.56399999999999</v>
       </c>
       <c r="W24">
-        <v>-53</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-1071</v>
+        <v>-207.52600000000001</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>313</v>
+        <v>30.841000000000001</v>
       </c>
       <c r="AA24">
-        <v>64</v>
+        <v>54.67</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42671</v>
+        <v>39017</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>109</v>
+        <v>86.93</v>
       </c>
       <c r="D25">
-        <v>1340</v>
+        <v>652.52300000000002</v>
       </c>
       <c r="E25">
-        <v>547</v>
+        <v>399.65699999999998</v>
       </c>
       <c r="F25">
-        <v>829</v>
+        <v>401.30700000000002</v>
       </c>
       <c r="G25">
-        <v>5220</v>
+        <v>2050.5369999999998</v>
       </c>
       <c r="H25">
-        <v>8762</v>
+        <v>3320.2080000000001</v>
       </c>
       <c r="I25">
-        <v>253</v>
+        <v>109.392</v>
       </c>
       <c r="J25">
-        <v>1492</v>
+        <v>70.510000000000005</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2528</v>
+        <v>934.27300000000002</v>
       </c>
       <c r="O25">
-        <v>5973</v>
+        <v>1357.6559999999999</v>
       </c>
       <c r="P25">
-        <v>1492</v>
+        <v>193.428</v>
       </c>
       <c r="Q25">
-        <v>-181</v>
+        <v>81.009</v>
       </c>
       <c r="R25">
-        <v>42671</v>
+        <v>39017</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>2789</v>
+        <v>1962.5519999999999</v>
       </c>
       <c r="U25">
-        <v>2113</v>
+        <v>523.33799999999997</v>
       </c>
       <c r="V25">
-        <v>158</v>
+        <v>238.83799999999999</v>
       </c>
       <c r="W25">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-154</v>
+        <v>-150.97200000000001</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-123</v>
+        <v>-15.167999999999999</v>
       </c>
       <c r="AA25">
-        <v>109</v>
+        <v>86.930999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42762</v>
+        <v>39108</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>146</v>
+        <v>66.513999999999996</v>
       </c>
       <c r="D26">
-        <v>1404</v>
+        <v>729.27800000000002</v>
       </c>
       <c r="E26">
-        <v>605</v>
+        <v>438.81799999999998</v>
       </c>
       <c r="F26">
-        <v>851</v>
+        <v>444.10899999999998</v>
       </c>
       <c r="G26">
-        <v>5646</v>
+        <v>2033.424</v>
       </c>
       <c r="H26">
-        <v>9055</v>
+        <v>3493.2890000000002</v>
       </c>
       <c r="I26">
-        <v>258</v>
+        <v>124.262</v>
       </c>
       <c r="J26">
-        <v>744</v>
+        <v>27.18</v>
       </c>
       <c r="K26">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,81 +2884,81 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>3844</v>
+        <v>1073.0309999999999</v>
       </c>
       <c r="O26">
-        <v>6361</v>
+        <v>1518.42</v>
       </c>
       <c r="P26">
-        <v>2014</v>
+        <v>151.131</v>
       </c>
       <c r="Q26">
-        <v>100</v>
+        <v>-33.122999999999998</v>
       </c>
       <c r="R26">
-        <v>42762</v>
+        <v>39108</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>2694</v>
+        <v>1974.8689999999999</v>
       </c>
       <c r="U26">
-        <v>2213</v>
+        <v>490.21600000000001</v>
       </c>
       <c r="V26">
-        <v>235</v>
+        <v>250.30600000000001</v>
       </c>
       <c r="W26">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>97</v>
+        <v>-179.88300000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-188</v>
+        <v>54.302999999999997</v>
       </c>
       <c r="AA26">
-        <v>146</v>
+        <v>66.513999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42853</v>
+        <v>39199</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>190</v>
+        <v>89.620999999999995</v>
       </c>
       <c r="D27">
-        <v>1481</v>
+        <v>801.19299999999998</v>
       </c>
       <c r="E27">
-        <v>731</v>
+        <v>548.24900000000002</v>
       </c>
       <c r="F27">
-        <v>913</v>
+        <v>486.01400000000001</v>
       </c>
       <c r="G27">
-        <v>6198</v>
+        <v>2240.8029999999999</v>
       </c>
       <c r="H27">
-        <v>9493</v>
+        <v>3658.4780000000001</v>
       </c>
       <c r="I27">
-        <v>347</v>
+        <v>144.11199999999999</v>
       </c>
       <c r="J27">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,164 +2967,164 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>4122</v>
+        <v>1187.547</v>
       </c>
       <c r="O27">
-        <v>6713</v>
+        <v>1669.4570000000001</v>
       </c>
       <c r="P27">
-        <v>2123</v>
+        <v>85.11</v>
       </c>
       <c r="Q27">
-        <v>231</v>
+        <v>-1.1359999999999999</v>
       </c>
       <c r="R27">
-        <v>42853</v>
+        <v>39199</v>
       </c>
       <c r="S27">
-        <v>10100</v>
+        <v>6635</v>
       </c>
       <c r="T27">
-        <v>2780</v>
+        <v>1989.021</v>
       </c>
       <c r="U27">
-        <v>2444</v>
+        <v>489.07900000000001</v>
       </c>
       <c r="V27">
-        <v>365</v>
+        <v>210.74799999999999</v>
       </c>
       <c r="W27">
-        <v>-51</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-51</v>
+        <v>-208.87700000000001</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-45</v>
+        <v>119.111</v>
       </c>
       <c r="AA27">
-        <v>190</v>
+        <v>89.620999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42944</v>
+        <v>39290</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>131</v>
+        <v>34.337000000000003</v>
       </c>
       <c r="D28">
-        <v>1321</v>
+        <v>689.23500000000001</v>
       </c>
       <c r="E28">
-        <v>518</v>
+        <v>403.15899999999999</v>
       </c>
       <c r="F28">
-        <v>824</v>
+        <v>417.197</v>
       </c>
       <c r="G28">
-        <v>6298</v>
+        <v>2088.85</v>
       </c>
       <c r="H28">
-        <v>9599</v>
+        <v>3555.424</v>
       </c>
       <c r="I28">
-        <v>289</v>
+        <v>136.077</v>
       </c>
       <c r="J28">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>894</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>-15.96</v>
       </c>
       <c r="N28">
-        <v>4287</v>
+        <v>1072.0309999999999</v>
       </c>
       <c r="O28">
-        <v>6831</v>
+        <v>1628.289</v>
       </c>
       <c r="P28">
-        <v>2518</v>
+        <v>69.150000000000006</v>
       </c>
       <c r="Q28">
-        <v>503</v>
+        <v>134.911</v>
       </c>
       <c r="R28">
-        <v>42944</v>
+        <v>39290</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>2768</v>
+        <v>1927.135</v>
       </c>
       <c r="U28">
-        <v>2951</v>
+        <v>623.99</v>
       </c>
       <c r="V28">
-        <v>250</v>
+        <v>200.899</v>
       </c>
       <c r="W28">
-        <v>-54</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>181</v>
+        <v>-160.37200000000001</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>112</v>
+        <v>129.024</v>
       </c>
       <c r="AA28">
-        <v>131</v>
+        <v>34.337000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43035</v>
+        <v>39381</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>174</v>
+        <v>83.757999999999996</v>
       </c>
       <c r="D29">
-        <v>1415</v>
+        <v>792.19799999999998</v>
       </c>
       <c r="E29">
-        <v>584</v>
+        <v>427.85399999999998</v>
       </c>
       <c r="F29">
-        <v>900</v>
+        <v>484.005</v>
       </c>
       <c r="G29">
-        <v>7020</v>
+        <v>1768.663</v>
       </c>
       <c r="H29">
-        <v>10308</v>
+        <v>3558.0140000000001</v>
       </c>
       <c r="I29">
-        <v>379</v>
+        <v>119.099</v>
       </c>
       <c r="J29">
-        <v>1540</v>
+        <v>250</v>
       </c>
       <c r="K29">
-        <v>718</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>4214</v>
+        <v>1129.6279999999999</v>
       </c>
       <c r="O29">
-        <v>7531</v>
+        <v>1970.1780000000001</v>
       </c>
       <c r="P29">
-        <v>3138</v>
+        <v>297.77</v>
       </c>
       <c r="Q29">
-        <v>583</v>
+        <v>1.7170000000000001</v>
       </c>
       <c r="R29">
-        <v>43035</v>
+        <v>39381</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>2777</v>
+        <v>1587.836</v>
       </c>
       <c r="U29">
-        <v>3535</v>
+        <v>625.70699999999999</v>
       </c>
       <c r="V29">
-        <v>314</v>
+        <v>227.672</v>
       </c>
       <c r="W29">
-        <v>-54</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>420</v>
+        <v>-250.73599999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-64</v>
+        <v>72.771000000000001</v>
       </c>
       <c r="AA29">
-        <v>174</v>
+        <v>83.757999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43126</v>
+        <v>39472</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-479</v>
+        <v>101.82299999999999</v>
       </c>
       <c r="D30">
-        <v>1539</v>
+        <v>884.00300000000004</v>
       </c>
       <c r="E30">
-        <v>754</v>
+        <v>462.76900000000001</v>
       </c>
       <c r="F30">
-        <v>956</v>
+        <v>539.30200000000002</v>
       </c>
       <c r="G30">
-        <v>6766</v>
+        <v>1916.684</v>
       </c>
       <c r="H30">
-        <v>9787</v>
+        <v>3779.4259999999999</v>
       </c>
       <c r="I30">
-        <v>458</v>
+        <v>119.867</v>
       </c>
       <c r="J30">
-        <v>1540</v>
+        <v>250</v>
       </c>
       <c r="K30">
-        <v>632</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,81 +3216,81 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>3548</v>
+        <v>1224.482</v>
       </c>
       <c r="O30">
-        <v>7611</v>
+        <v>2118.893</v>
       </c>
       <c r="P30">
-        <v>2172</v>
+        <v>278.79000000000002</v>
       </c>
       <c r="Q30">
-        <v>-556</v>
+        <v>150.65199999999999</v>
       </c>
       <c r="R30">
-        <v>43126</v>
+        <v>39472</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>2176</v>
+        <v>1660.5329999999999</v>
       </c>
       <c r="U30">
-        <v>2974</v>
+        <v>776.35900000000004</v>
       </c>
       <c r="V30">
-        <v>420</v>
+        <v>287.01400000000001</v>
       </c>
       <c r="W30">
-        <v>-53</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-951</v>
+        <v>-98.266000000000005</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-226</v>
+        <v>21.841999999999999</v>
       </c>
       <c r="AA30">
-        <v>-479</v>
+        <v>101.82299999999999</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43217</v>
+        <v>39563</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>290</v>
+        <v>89.82</v>
       </c>
       <c r="D31">
-        <v>1644</v>
+        <v>937.73099999999999</v>
       </c>
       <c r="E31">
-        <v>1047</v>
+        <v>582.11</v>
       </c>
       <c r="F31">
-        <v>1029</v>
+        <v>572.87199999999996</v>
       </c>
       <c r="G31">
-        <v>6952</v>
+        <v>2067.433</v>
       </c>
       <c r="H31">
-        <v>9991</v>
+        <v>4070.9879999999998</v>
       </c>
       <c r="I31">
-        <v>609</v>
+        <v>178.233</v>
       </c>
       <c r="J31">
-        <v>1541</v>
+        <v>172.6</v>
       </c>
       <c r="K31">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,164 +3299,164 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>3531</v>
+        <v>1414.1020000000001</v>
       </c>
       <c r="O31">
-        <v>7715</v>
+        <v>2370.6489999999999</v>
       </c>
       <c r="P31">
-        <v>1926</v>
+        <v>172.6</v>
       </c>
       <c r="Q31">
-        <v>-33</v>
+        <v>160.12</v>
       </c>
       <c r="R31">
-        <v>43217</v>
+        <v>39563</v>
       </c>
       <c r="S31">
-        <v>10300</v>
+        <v>7645</v>
       </c>
       <c r="T31">
-        <v>2276</v>
+        <v>1700.3389999999999</v>
       </c>
       <c r="U31">
-        <v>2941</v>
+        <v>936.47900000000004</v>
       </c>
       <c r="V31">
-        <v>494</v>
+        <v>293.30099999999999</v>
       </c>
       <c r="W31">
-        <v>-53</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-636</v>
+        <v>-153.018</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>168</v>
+        <v>167.73099999999999</v>
       </c>
       <c r="AA31">
-        <v>290</v>
+        <v>89.82</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43308</v>
+        <v>39654</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>283</v>
+        <v>34.722999999999999</v>
       </c>
       <c r="D32">
-        <v>1474</v>
+        <v>868.77599999999995</v>
       </c>
       <c r="E32">
-        <v>616</v>
+        <v>432.51</v>
       </c>
       <c r="F32">
-        <v>963</v>
+        <v>516.64800000000002</v>
       </c>
       <c r="G32">
-        <v>5853</v>
+        <v>2864.893</v>
       </c>
       <c r="H32">
-        <v>8905</v>
+        <v>4982.5609999999997</v>
       </c>
       <c r="I32">
-        <v>425</v>
+        <v>146.15799999999999</v>
       </c>
       <c r="J32">
-        <v>1542</v>
+        <v>1395.7650000000001</v>
       </c>
       <c r="K32">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>-185</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>-41.835000000000001</v>
       </c>
       <c r="N32">
-        <v>2840</v>
+        <v>1354.308</v>
       </c>
       <c r="O32">
-        <v>6983</v>
+        <v>3546.5639999999999</v>
       </c>
       <c r="P32">
-        <v>1742</v>
+        <v>1395.7650000000001</v>
       </c>
       <c r="Q32">
-        <v>-314</v>
+        <v>765.91600000000005</v>
       </c>
       <c r="R32">
-        <v>43308</v>
+        <v>39654</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>1922</v>
+        <v>1435.9970000000001</v>
       </c>
       <c r="U32">
-        <v>2627</v>
+        <v>1702.395</v>
       </c>
       <c r="V32">
-        <v>326</v>
+        <v>250.19499999999999</v>
       </c>
       <c r="W32">
-        <v>-105</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-812</v>
+        <v>749.01499999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>248</v>
+        <v>-157.131</v>
       </c>
       <c r="AA32">
-        <v>283</v>
+        <v>34.722999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43399</v>
+        <v>39745</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>241</v>
+        <v>43.052999999999997</v>
       </c>
       <c r="D33">
-        <v>1517</v>
+        <v>911.63099999999997</v>
       </c>
       <c r="E33">
-        <v>765</v>
+        <v>362.31700000000001</v>
       </c>
       <c r="F33">
-        <v>974</v>
+        <v>546.15599999999995</v>
       </c>
       <c r="G33">
-        <v>5471</v>
+        <v>3046.0590000000002</v>
       </c>
       <c r="H33">
-        <v>8551</v>
+        <v>5078.3860000000004</v>
       </c>
       <c r="I33">
-        <v>472</v>
+        <v>156.84200000000001</v>
       </c>
       <c r="J33">
-        <v>1144</v>
+        <v>1330.3489999999999</v>
       </c>
       <c r="K33">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>3310</v>
+        <v>1397.18</v>
       </c>
       <c r="O33">
-        <v>7021</v>
+        <v>3538.8519999999999</v>
       </c>
       <c r="P33">
-        <v>1792</v>
+        <v>1330.3489999999999</v>
       </c>
       <c r="Q33">
-        <v>-268</v>
+        <v>-531.36599999999999</v>
       </c>
       <c r="R33">
-        <v>43399</v>
+        <v>39745</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>1530</v>
+        <v>1539.5340000000001</v>
       </c>
       <c r="U33">
-        <v>2359</v>
+        <v>1171.029</v>
       </c>
       <c r="V33">
-        <v>165</v>
+        <v>207.44</v>
       </c>
       <c r="W33">
-        <v>-102</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-617</v>
+        <v>-32.381999999999998</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>241</v>
+        <v>-660.35500000000002</v>
       </c>
       <c r="AA33">
-        <v>241</v>
+        <v>43.052999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43490</v>
+        <v>39836</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>249</v>
+        <v>-81.623000000000005</v>
       </c>
       <c r="D34">
-        <v>1563</v>
+        <v>874.34299999999996</v>
       </c>
       <c r="E34">
-        <v>872</v>
+        <v>344.43700000000001</v>
       </c>
       <c r="F34">
-        <v>982</v>
+        <v>521.21600000000001</v>
       </c>
       <c r="G34">
-        <v>5361</v>
+        <v>3162.0120000000002</v>
       </c>
       <c r="H34">
-        <v>8418</v>
+        <v>5189.74</v>
       </c>
       <c r="I34">
-        <v>497</v>
+        <v>122.92400000000001</v>
       </c>
       <c r="J34">
-        <v>1144</v>
+        <v>1265</v>
       </c>
       <c r="K34">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,81 +3548,81 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>3430</v>
+        <v>1562.9780000000001</v>
       </c>
       <c r="O34">
-        <v>7188</v>
+        <v>3662.3470000000002</v>
       </c>
       <c r="P34">
-        <v>1706</v>
+        <v>1265</v>
       </c>
       <c r="Q34">
-        <v>-89</v>
+        <v>537.17100000000005</v>
       </c>
       <c r="R34">
-        <v>43490</v>
+        <v>39836</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>1230</v>
+        <v>1527.393</v>
       </c>
       <c r="U34">
-        <v>2271</v>
+        <v>1708.2</v>
       </c>
       <c r="V34">
-        <v>451</v>
+        <v>236</v>
       </c>
       <c r="W34">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-688</v>
+        <v>-38.472999999999999</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>172</v>
+        <v>395.40199999999999</v>
       </c>
       <c r="AA34">
-        <v>249</v>
+        <v>-81.623000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43581</v>
+        <v>39927</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>396</v>
+        <v>68.447000000000003</v>
       </c>
       <c r="D35">
-        <v>1592</v>
+        <v>880.35</v>
       </c>
       <c r="E35">
-        <v>1216</v>
+        <v>446.5</v>
       </c>
       <c r="F35">
-        <v>1026</v>
+        <v>534.58000000000004</v>
       </c>
       <c r="G35">
-        <v>5610</v>
+        <v>3438.8</v>
       </c>
       <c r="H35">
-        <v>8741</v>
+        <v>5384.4</v>
       </c>
       <c r="I35">
-        <v>542</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="J35">
-        <v>1144</v>
+        <v>1054.7</v>
       </c>
       <c r="K35">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,164 +3631,164 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>3867</v>
+        <v>1679.3</v>
       </c>
       <c r="O35">
-        <v>7651</v>
+        <v>3600.2</v>
       </c>
       <c r="P35">
-        <v>1793</v>
+        <v>1054.7</v>
       </c>
       <c r="Q35">
-        <v>55</v>
+        <v>-214.02099999999999</v>
       </c>
       <c r="R35">
-        <v>43581</v>
+        <v>39927</v>
       </c>
       <c r="S35">
-        <v>10500</v>
+        <v>7976</v>
       </c>
       <c r="T35">
-        <v>1090</v>
+        <v>1784.2</v>
       </c>
       <c r="U35">
-        <v>2325</v>
+        <v>1494.2</v>
       </c>
       <c r="V35">
-        <v>399</v>
+        <v>195.565</v>
       </c>
       <c r="W35">
-        <v>-97</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-514</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>215</v>
+        <v>-292.71600000000001</v>
       </c>
       <c r="AA35">
-        <v>396</v>
+        <v>68.447000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43672</v>
+        <v>40025</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>103</v>
+        <v>51.7</v>
       </c>
       <c r="D36">
-        <v>1236</v>
+        <v>837.9</v>
       </c>
       <c r="E36">
-        <v>542</v>
+        <v>331.661</v>
       </c>
       <c r="F36">
-        <v>816</v>
+        <v>522.5</v>
       </c>
       <c r="G36">
-        <v>4516</v>
+        <v>3333.7069999999999</v>
       </c>
       <c r="H36">
-        <v>7811</v>
+        <v>5314.8919999999998</v>
       </c>
       <c r="I36">
-        <v>348</v>
+        <v>122.187</v>
       </c>
       <c r="J36">
-        <v>1145</v>
+        <v>1066.77</v>
       </c>
       <c r="K36">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>-219</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>3175</v>
+        <v>1459.722</v>
       </c>
       <c r="O36">
-        <v>6948</v>
+        <v>3365.759</v>
       </c>
       <c r="P36">
-        <v>1726</v>
+        <v>1066.77</v>
       </c>
       <c r="Q36">
-        <v>642</v>
+        <v>290.2</v>
       </c>
       <c r="R36">
-        <v>43672</v>
+        <v>40025</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>863</v>
+        <v>1949.133</v>
       </c>
       <c r="U36">
-        <v>2967</v>
+        <v>1784.3879999999999</v>
       </c>
       <c r="V36">
-        <v>310</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="W36">
-        <v>-115</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-603</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="Y36">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>1027</v>
+        <v>233.6</v>
       </c>
       <c r="AA36">
-        <v>103</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43763</v>
+        <v>40116</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>243</v>
+        <v>95.6</v>
       </c>
       <c r="D37">
-        <v>1371</v>
+        <v>910</v>
       </c>
       <c r="E37">
-        <v>780</v>
+        <v>318.03300000000002</v>
       </c>
       <c r="F37">
-        <v>925</v>
+        <v>606.70000000000005</v>
       </c>
       <c r="G37">
-        <v>4191</v>
+        <v>3590.5889999999999</v>
       </c>
       <c r="H37">
-        <v>7472</v>
+        <v>5564.5069999999996</v>
       </c>
       <c r="I37">
-        <v>382</v>
+        <v>118.807</v>
       </c>
       <c r="J37">
-        <v>1145</v>
+        <v>1078.0160000000001</v>
       </c>
       <c r="K37">
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>3204</v>
+        <v>1538.759</v>
       </c>
       <c r="O37">
-        <v>6936</v>
+        <v>3461.0129999999999</v>
       </c>
       <c r="P37">
-        <v>1794</v>
+        <v>1078.0160000000001</v>
       </c>
       <c r="Q37">
-        <v>-422</v>
+        <v>-55.6</v>
       </c>
       <c r="R37">
-        <v>43763</v>
+        <v>40116</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>536</v>
+        <v>2103.4940000000001</v>
       </c>
       <c r="U37">
-        <v>2545</v>
+        <v>1728.8409999999999</v>
       </c>
       <c r="V37">
-        <v>-53</v>
+        <v>267.3</v>
       </c>
       <c r="W37">
-        <v>-111</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-545</v>
+        <v>28.2</v>
       </c>
       <c r="Y37">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>119</v>
+        <v>-336</v>
       </c>
       <c r="AA37">
-        <v>243</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43854</v>
+        <v>40207</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>277</v>
+        <v>107.9</v>
       </c>
       <c r="D38">
-        <v>1404</v>
+        <v>1011.7</v>
       </c>
       <c r="E38">
-        <v>821</v>
+        <v>457.536</v>
       </c>
       <c r="F38">
-        <v>941</v>
+        <v>641.5</v>
       </c>
       <c r="G38">
-        <v>4218</v>
+        <v>4017.4009999999998</v>
       </c>
       <c r="H38">
-        <v>7483</v>
+        <v>5968.634</v>
       </c>
       <c r="I38">
-        <v>381</v>
+        <v>139.14500000000001</v>
       </c>
       <c r="J38">
-        <v>1146</v>
+        <v>1089.4960000000001</v>
       </c>
       <c r="K38">
-        <v>693</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,81 +3880,81 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>3529</v>
+        <v>1681.529</v>
       </c>
       <c r="O38">
-        <v>7201</v>
+        <v>3641.654</v>
       </c>
       <c r="P38">
-        <v>1988</v>
+        <v>1089.4960000000001</v>
       </c>
       <c r="Q38">
-        <v>160</v>
+        <v>247</v>
       </c>
       <c r="R38">
-        <v>43854</v>
+        <v>40207</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>282</v>
+        <v>2326.98</v>
       </c>
       <c r="U38">
-        <v>2705</v>
+        <v>1975.826</v>
       </c>
       <c r="V38">
-        <v>420</v>
+        <v>194.9</v>
       </c>
       <c r="W38">
-        <v>-108</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-372</v>
+        <v>96.2</v>
       </c>
       <c r="Y38">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="AA38">
-        <v>277</v>
+        <v>107.9</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43945</v>
+        <v>40298</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>196</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="D39">
-        <v>1401</v>
+        <v>1171.8</v>
       </c>
       <c r="E39">
-        <v>973</v>
+        <v>471.5</v>
       </c>
       <c r="F39">
-        <v>941</v>
+        <v>748.5</v>
       </c>
       <c r="G39">
-        <v>4274</v>
+        <v>4537.1000000000004</v>
       </c>
       <c r="H39">
-        <v>7522</v>
+        <v>6494.4</v>
       </c>
       <c r="I39">
-        <v>426</v>
+        <v>184.6</v>
       </c>
       <c r="J39">
-        <v>1146</v>
+        <v>1101.5</v>
       </c>
       <c r="K39">
-        <v>522</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,161 +3963,161 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>3616</v>
+        <v>1911</v>
       </c>
       <c r="O39">
-        <v>7280</v>
+        <v>3963.9</v>
       </c>
       <c r="P39">
-        <v>1812</v>
+        <v>1101.5</v>
       </c>
       <c r="Q39">
-        <v>-45</v>
+        <v>-270.8</v>
       </c>
       <c r="R39">
-        <v>43945</v>
+        <v>40298</v>
       </c>
       <c r="S39">
-        <v>10800</v>
+        <v>8333</v>
       </c>
       <c r="T39">
-        <v>242</v>
+        <v>2530.5</v>
       </c>
       <c r="U39">
-        <v>2658</v>
+        <v>1705</v>
       </c>
       <c r="V39">
-        <v>383</v>
+        <v>474.6</v>
       </c>
       <c r="W39">
-        <v>-105</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>-440</v>
+        <v>62.2</v>
       </c>
       <c r="Y39">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>82</v>
+        <v>-768.9</v>
       </c>
       <c r="AA39">
-        <v>196</v>
+        <v>145.19999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44043</v>
+        <v>40389</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>77</v>
+        <v>150.69999999999999</v>
       </c>
       <c r="D40">
-        <v>1303</v>
+        <v>1153.7</v>
       </c>
       <c r="E40">
-        <v>604</v>
+        <v>372.5</v>
       </c>
       <c r="F40">
-        <v>872</v>
+        <v>737.8</v>
       </c>
       <c r="G40">
-        <v>4817</v>
+        <v>4594.2</v>
       </c>
       <c r="H40">
-        <v>8416</v>
+        <v>6645.8</v>
       </c>
       <c r="I40">
-        <v>396</v>
+        <v>149.9</v>
       </c>
       <c r="J40">
-        <v>2630</v>
+        <v>1113.4000000000001</v>
       </c>
       <c r="K40">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>-370</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>-589</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>2976</v>
+        <v>1665.4</v>
       </c>
       <c r="O40">
-        <v>8132</v>
+        <v>3795.9</v>
       </c>
       <c r="P40">
-        <v>2922</v>
+        <v>1113.4000000000001</v>
       </c>
       <c r="Q40">
-        <v>975</v>
+        <v>-93</v>
       </c>
       <c r="R40">
-        <v>44043</v>
+        <v>40389</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>8973</v>
       </c>
       <c r="T40">
-        <v>284</v>
+        <v>2849.9</v>
       </c>
       <c r="U40">
-        <v>3633</v>
+        <v>1612</v>
       </c>
       <c r="V40">
-        <v>240</v>
+        <v>177.3</v>
       </c>
       <c r="W40">
-        <v>-107</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>1003</v>
+        <v>139.9</v>
       </c>
       <c r="Y40">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>85</v>
+        <v>-293.89999999999998</v>
       </c>
       <c r="AA40">
-        <v>77</v>
+        <v>150.69999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44134</v>
+        <v>40480</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>137</v>
+        <v>175.4</v>
       </c>
       <c r="D41">
-        <v>1416</v>
+        <v>1251</v>
       </c>
       <c r="E41">
-        <v>796</v>
+        <v>446.6</v>
       </c>
       <c r="F41">
-        <v>933</v>
+        <v>816.5</v>
       </c>
       <c r="G41">
-        <v>4821</v>
+        <v>5131.1000000000004</v>
       </c>
       <c r="H41">
-        <v>8420</v>
+        <v>7237.8</v>
       </c>
       <c r="I41">
-        <v>367</v>
+        <v>175.9</v>
       </c>
       <c r="J41">
-        <v>2631</v>
+        <v>1125.4000000000001</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2920</v>
+        <v>1834.5</v>
       </c>
       <c r="O41">
-        <v>8050</v>
+        <v>4030.4</v>
       </c>
       <c r="P41">
-        <v>2767</v>
+        <v>1125.4000000000001</v>
       </c>
       <c r="Q41">
-        <v>-105</v>
+        <v>159.1</v>
       </c>
       <c r="R41">
-        <v>44134</v>
+        <v>40480</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>370</v>
+        <v>3207.4</v>
       </c>
       <c r="U41">
-        <v>3529</v>
+        <v>1771.1</v>
       </c>
       <c r="V41">
-        <v>161</v>
+        <v>355.8</v>
       </c>
       <c r="W41">
-        <v>-107</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-257</v>
+        <v>135.80000000000001</v>
       </c>
       <c r="Y41">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>22</v>
+        <v>-300.89999999999998</v>
       </c>
       <c r="AA41">
-        <v>137</v>
+        <v>175.4</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44225</v>
+        <v>40571</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>186.4</v>
+      </c>
+      <c r="D42">
+        <v>1289.5999999999999</v>
+      </c>
+      <c r="E42">
+        <v>541.5</v>
+      </c>
+      <c r="F42">
+        <v>846.2</v>
+      </c>
+      <c r="G42">
+        <v>5598.7</v>
+      </c>
+      <c r="H42">
+        <v>7763.4</v>
+      </c>
+      <c r="I42">
+        <v>183.6</v>
+      </c>
+      <c r="J42">
+        <v>1137.7</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1942.4</v>
+      </c>
+      <c r="O42">
+        <v>4250</v>
+      </c>
+      <c r="P42">
+        <v>1137.7</v>
+      </c>
+      <c r="Q42">
+        <v>148.30000000000001</v>
+      </c>
+      <c r="R42">
+        <v>40571</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>3513.4</v>
+      </c>
+      <c r="U42">
+        <v>1919.4</v>
+      </c>
+      <c r="V42">
+        <v>354.4</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>100</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-240.7</v>
+      </c>
+      <c r="AA42">
+        <v>186.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40662</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>160.6</v>
+      </c>
+      <c r="D43">
+        <v>1428.3</v>
+      </c>
+      <c r="E43">
+        <v>742.6</v>
+      </c>
+      <c r="F43">
+        <v>928.2</v>
+      </c>
+      <c r="G43">
+        <v>6365.2</v>
+      </c>
+      <c r="H43">
+        <v>8498.7999999999993</v>
+      </c>
+      <c r="I43">
+        <v>232.8</v>
+      </c>
+      <c r="J43">
+        <v>114.6</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>3372.8</v>
+      </c>
+      <c r="O43">
+        <v>4768.6000000000004</v>
+      </c>
+      <c r="P43">
+        <v>1265</v>
+      </c>
+      <c r="Q43">
+        <v>837.9</v>
+      </c>
+      <c r="R43">
+        <v>40662</v>
+      </c>
+      <c r="S43">
+        <v>10212</v>
+      </c>
+      <c r="T43">
+        <v>3730.2</v>
+      </c>
+      <c r="U43">
+        <v>2757.3</v>
+      </c>
+      <c r="V43">
+        <v>458.8</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>75.2</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>417</v>
+      </c>
+      <c r="AA43">
+        <v>160.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40753</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>139.5</v>
+      </c>
+      <c r="D44">
+        <v>1458.2</v>
+      </c>
+      <c r="E44">
+        <v>597</v>
+      </c>
+      <c r="F44">
+        <v>896.9</v>
+      </c>
+      <c r="G44">
+        <v>5837.6</v>
+      </c>
+      <c r="H44">
+        <v>8445.7999999999993</v>
+      </c>
+      <c r="I44">
+        <v>250.8</v>
+      </c>
+      <c r="J44">
+        <v>101.9</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>3171.2</v>
+      </c>
+      <c r="O44">
+        <v>4620.8999999999996</v>
+      </c>
+      <c r="P44">
+        <v>1265</v>
+      </c>
+      <c r="Q44">
+        <v>-214.1</v>
+      </c>
+      <c r="R44">
+        <v>40753</v>
+      </c>
+      <c r="S44">
+        <v>11000</v>
+      </c>
+      <c r="T44">
+        <v>3824.9</v>
+      </c>
+      <c r="U44">
+        <v>2543.1999999999998</v>
+      </c>
+      <c r="V44">
+        <v>240.6</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-121</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>245.8</v>
+      </c>
+      <c r="AA44">
+        <v>139.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40844</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>165.6</v>
+      </c>
+      <c r="D45">
+        <v>1507</v>
+      </c>
+      <c r="E45">
+        <v>625.20000000000005</v>
+      </c>
+      <c r="F45">
+        <v>913</v>
+      </c>
+      <c r="G45">
+        <v>5830</v>
+      </c>
+      <c r="H45">
+        <v>8504.1</v>
+      </c>
+      <c r="I45">
+        <v>273.2</v>
+      </c>
+      <c r="J45">
+        <v>1175.8</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2122.3000000000002</v>
+      </c>
+      <c r="O45">
+        <v>4701.1000000000004</v>
+      </c>
+      <c r="P45">
+        <v>1175.8</v>
+      </c>
+      <c r="Q45">
+        <v>-274.2</v>
+      </c>
+      <c r="R45">
+        <v>40844</v>
+      </c>
+      <c r="S45">
+        <v>11500</v>
+      </c>
+      <c r="T45">
+        <v>3803</v>
+      </c>
+      <c r="U45">
+        <v>2269</v>
+      </c>
+      <c r="V45">
+        <v>370.2</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-340.8</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-205.4</v>
+      </c>
+      <c r="AA45">
+        <v>165.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40935</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>119.6</v>
+      </c>
+      <c r="D46">
+        <v>1565.5</v>
+      </c>
+      <c r="E46">
+        <v>685.4</v>
+      </c>
+      <c r="F46">
+        <v>908.5</v>
+      </c>
+      <c r="G46">
+        <v>6167.7</v>
+      </c>
+      <c r="H46">
+        <v>8821.6</v>
+      </c>
+      <c r="I46">
+        <v>220.2</v>
+      </c>
+      <c r="J46">
+        <v>1188.8</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2157.5</v>
+      </c>
+      <c r="O46">
+        <v>4780.1000000000004</v>
+      </c>
+      <c r="P46">
+        <v>1188.8</v>
+      </c>
+      <c r="Q46">
+        <v>151.9</v>
+      </c>
+      <c r="R46">
+        <v>40935</v>
+      </c>
+      <c r="S46">
+        <v>12000</v>
+      </c>
+      <c r="T46">
+        <v>4041.5</v>
+      </c>
+      <c r="U46">
+        <v>2420.9</v>
+      </c>
+      <c r="V46">
+        <v>269.2</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>46.6</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-61.6</v>
+      </c>
+      <c r="AA46">
+        <v>119.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41026</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>180.7</v>
+      </c>
+      <c r="D47">
+        <v>1702.5</v>
+      </c>
+      <c r="E47">
+        <v>830.9</v>
+      </c>
+      <c r="F47">
+        <v>995</v>
+      </c>
+      <c r="G47">
+        <v>6826.5</v>
+      </c>
+      <c r="H47">
+        <v>9532.2999999999993</v>
+      </c>
+      <c r="I47">
+        <v>233.1</v>
+      </c>
+      <c r="J47">
+        <v>62.6</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>3519.8</v>
+      </c>
+      <c r="O47">
+        <v>5238.7</v>
+      </c>
+      <c r="P47">
+        <v>1264.9000000000001</v>
+      </c>
+      <c r="Q47">
+        <v>-871.1</v>
+      </c>
+      <c r="R47">
+        <v>41026</v>
+      </c>
+      <c r="S47">
+        <v>12149</v>
+      </c>
+      <c r="T47">
+        <v>4293.6000000000004</v>
+      </c>
+      <c r="U47">
+        <v>1549.8</v>
+      </c>
+      <c r="V47">
+        <v>582.6</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-1403.7</v>
+      </c>
+      <c r="AA47">
+        <v>180.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41117</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>63.8</v>
+      </c>
+      <c r="D48">
+        <v>1444.6</v>
+      </c>
+      <c r="E48">
+        <v>584.20000000000005</v>
+      </c>
+      <c r="F48">
+        <v>850.1</v>
+      </c>
+      <c r="G48">
+        <v>6740.8</v>
+      </c>
+      <c r="H48">
+        <v>9406</v>
+      </c>
+      <c r="I48">
+        <v>275.60000000000002</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>3459.9</v>
+      </c>
+      <c r="O48">
+        <v>5030.3</v>
+      </c>
+      <c r="P48">
+        <v>1215.8</v>
+      </c>
+      <c r="Q48">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="R48">
+        <v>41117</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>4375.7</v>
+      </c>
+      <c r="U48">
+        <v>1529.4</v>
+      </c>
+      <c r="V48">
+        <v>229.2</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-112.1</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-66.099999999999994</v>
+      </c>
+      <c r="AA48">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41208</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>109.6</v>
+      </c>
+      <c r="D49">
+        <v>1541.2</v>
+      </c>
+      <c r="E49">
+        <v>615</v>
+      </c>
+      <c r="F49">
+        <v>913.9</v>
+      </c>
+      <c r="G49">
+        <v>6887.7</v>
+      </c>
+      <c r="H49">
+        <v>9553.9</v>
+      </c>
+      <c r="I49">
+        <v>246.6</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>3573.7</v>
+      </c>
+      <c r="O49">
+        <v>5151.7</v>
+      </c>
+      <c r="P49">
+        <v>1229.4000000000001</v>
+      </c>
+      <c r="Q49">
+        <v>287.39999999999998</v>
+      </c>
+      <c r="R49">
+        <v>41208</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>4402.2</v>
+      </c>
+      <c r="U49">
+        <v>1816.8</v>
+      </c>
+      <c r="V49">
+        <v>336.4</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-147.80000000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>159.5</v>
+      </c>
+      <c r="AA49">
+        <v>109.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41299</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>158.1</v>
+      </c>
+      <c r="D50">
+        <v>1630.1</v>
+      </c>
+      <c r="E50">
+        <v>633.79999999999995</v>
+      </c>
+      <c r="F50">
+        <v>964.9</v>
+      </c>
+      <c r="G50">
+        <v>8048.6</v>
+      </c>
+      <c r="H50">
+        <v>10865.9</v>
+      </c>
+      <c r="I50">
+        <v>221.2</v>
+      </c>
+      <c r="J50">
+        <v>994.3</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>3621</v>
+      </c>
+      <c r="O50">
+        <v>6240.9</v>
+      </c>
+      <c r="P50">
+        <v>2237.6</v>
+      </c>
+      <c r="Q50">
+        <v>1264.9000000000001</v>
+      </c>
+      <c r="R50">
+        <v>41299</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>4625</v>
+      </c>
+      <c r="U50">
+        <v>3081.7</v>
+      </c>
+      <c r="V50">
+        <v>365.1</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>985</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>110.7</v>
+      </c>
+      <c r="AA50">
+        <v>158.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41390</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>173.8</v>
+      </c>
+      <c r="D51">
+        <v>1716.5</v>
+      </c>
+      <c r="E51">
+        <v>800.9</v>
+      </c>
+      <c r="F51">
+        <v>1032.2</v>
+      </c>
+      <c r="G51">
+        <v>8418.2000000000007</v>
+      </c>
+      <c r="H51">
+        <v>11242.4</v>
+      </c>
+      <c r="I51">
+        <v>259.7</v>
+      </c>
+      <c r="J51">
+        <v>994.6</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>3830.6</v>
+      </c>
+      <c r="O51">
+        <v>6524.9</v>
+      </c>
+      <c r="P51">
+        <v>2252.4</v>
+      </c>
+      <c r="Q51">
+        <v>195.4</v>
+      </c>
+      <c r="R51">
+        <v>41390</v>
+      </c>
+      <c r="S51">
+        <v>13060</v>
+      </c>
+      <c r="T51">
+        <v>4717.5</v>
+      </c>
+      <c r="U51">
+        <v>3277.1</v>
+      </c>
+      <c r="V51">
+        <v>455.6</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-146.19999999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-27.1</v>
+      </c>
+      <c r="AA51">
+        <v>173.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41481</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="D52">
+        <v>1516.2</v>
+      </c>
+      <c r="E52">
+        <v>533.29999999999995</v>
+      </c>
+      <c r="F52">
+        <v>909.6</v>
+      </c>
+      <c r="G52">
+        <v>6201.6</v>
+      </c>
+      <c r="H52">
+        <v>9017.9</v>
+      </c>
+      <c r="I52">
+        <v>218.7</v>
+      </c>
+      <c r="J52">
+        <v>994.8</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>-1264.9000000000001</v>
+      </c>
+      <c r="N52">
+        <v>2330.1</v>
+      </c>
+      <c r="O52">
+        <v>4999.8999999999996</v>
+      </c>
+      <c r="P52">
+        <v>994.8</v>
+      </c>
+      <c r="Q52">
+        <v>-1480.3</v>
+      </c>
+      <c r="R52">
+        <v>41481</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>4018</v>
+      </c>
+      <c r="U52">
+        <v>1796.8</v>
+      </c>
+      <c r="V52">
+        <v>285.8</v>
+      </c>
+      <c r="W52">
+        <v>-51.4</v>
+      </c>
+      <c r="X52">
+        <v>-2084.6999999999998</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>390</v>
+      </c>
+      <c r="AA52">
+        <v>81.599999999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41572</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>166.8</v>
+      </c>
+      <c r="D53">
+        <v>1549.9</v>
+      </c>
+      <c r="E53">
+        <v>590.4</v>
+      </c>
+      <c r="F53">
+        <v>965.2</v>
+      </c>
+      <c r="G53">
+        <v>6420</v>
+      </c>
+      <c r="H53">
+        <v>9197.4</v>
+      </c>
+      <c r="I53">
+        <v>223.8</v>
+      </c>
+      <c r="J53">
+        <v>995</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2408.6999999999998</v>
+      </c>
+      <c r="O53">
+        <v>5077</v>
+      </c>
+      <c r="P53">
+        <v>995</v>
+      </c>
+      <c r="Q53">
+        <v>463.7</v>
+      </c>
+      <c r="R53">
+        <v>41572</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>4120.3999999999996</v>
+      </c>
+      <c r="U53">
+        <v>2260.5</v>
+      </c>
+      <c r="V53">
+        <v>362.5</v>
+      </c>
+      <c r="W53">
+        <v>-51.3</v>
+      </c>
+      <c r="X53">
+        <v>-155.19999999999999</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>282.10000000000002</v>
+      </c>
+      <c r="AA53">
+        <v>166.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41663</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>192.1</v>
+      </c>
+      <c r="D54">
+        <v>1610</v>
+      </c>
+      <c r="E54">
+        <v>584.29999999999995</v>
+      </c>
+      <c r="F54">
+        <v>1002.3</v>
+      </c>
+      <c r="G54">
+        <v>6229.4</v>
+      </c>
+      <c r="H54">
+        <v>9000.6</v>
+      </c>
+      <c r="I54">
+        <v>186.6</v>
+      </c>
+      <c r="J54">
+        <v>995.2</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>2423.8000000000002</v>
+      </c>
+      <c r="O54">
+        <v>5084.7</v>
+      </c>
+      <c r="P54">
+        <v>995.2</v>
+      </c>
+      <c r="Q54">
+        <v>-107.8</v>
+      </c>
+      <c r="R54">
+        <v>41663</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>3915.9</v>
+      </c>
+      <c r="U54">
+        <v>2152.6999999999998</v>
+      </c>
+      <c r="V54">
+        <v>331.8</v>
+      </c>
+      <c r="W54">
+        <v>-50.4</v>
+      </c>
+      <c r="X54">
+        <v>-467.4</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>90.6</v>
+      </c>
+      <c r="AA54">
+        <v>192.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41754</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>197</v>
+      </c>
+      <c r="D55">
+        <v>1649</v>
+      </c>
+      <c r="E55">
+        <v>855.9</v>
+      </c>
+      <c r="F55">
+        <v>1042</v>
+      </c>
+      <c r="G55">
+        <v>6471.3</v>
+      </c>
+      <c r="H55">
+        <v>9213.7999999999993</v>
+      </c>
+      <c r="I55">
+        <v>247</v>
+      </c>
+      <c r="J55">
+        <v>990.1</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>2694.6</v>
+      </c>
+      <c r="O55">
+        <v>5427.3</v>
+      </c>
+      <c r="P55">
+        <v>990.1</v>
+      </c>
+      <c r="Q55">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="R55">
+        <v>41754</v>
+      </c>
+      <c r="S55">
+        <v>12490</v>
+      </c>
+      <c r="T55">
+        <v>3786.5</v>
+      </c>
+      <c r="U55">
+        <v>2291</v>
+      </c>
+      <c r="V55">
+        <v>369.5</v>
+      </c>
+      <c r="W55">
+        <v>-49.2</v>
+      </c>
+      <c r="X55">
+        <v>-396.7</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>212.3</v>
+      </c>
+      <c r="AA55">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41845</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>88</v>
+      </c>
+      <c r="D56">
+        <v>1489</v>
+      </c>
+      <c r="E56">
+        <v>585.4</v>
+      </c>
+      <c r="F56">
+        <v>938</v>
+      </c>
+      <c r="G56">
+        <v>6748.1</v>
+      </c>
+      <c r="H56">
+        <v>9472.4</v>
+      </c>
+      <c r="I56">
+        <v>183.1</v>
+      </c>
+      <c r="J56">
+        <v>1494.1</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2400.9</v>
+      </c>
+      <c r="O56">
+        <v>5635.7</v>
+      </c>
+      <c r="P56">
+        <v>1494.1</v>
+      </c>
+      <c r="Q56">
+        <v>741</v>
+      </c>
+      <c r="R56">
+        <v>41845</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>3836.7</v>
+      </c>
+      <c r="U56">
+        <v>3031.6</v>
+      </c>
+      <c r="V56">
+        <v>216</v>
+      </c>
+      <c r="W56">
+        <v>-53</v>
+      </c>
+      <c r="X56">
+        <v>392</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>191</v>
+      </c>
+      <c r="AA56">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41936</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>160</v>
+      </c>
+      <c r="D57">
+        <v>1543</v>
+      </c>
+      <c r="E57">
+        <v>632.70000000000005</v>
+      </c>
+      <c r="F57">
+        <v>983</v>
+      </c>
+      <c r="G57">
+        <v>6489.1</v>
+      </c>
+      <c r="H57">
+        <v>9177.5</v>
+      </c>
+      <c r="I57">
+        <v>210.3</v>
+      </c>
+      <c r="J57">
+        <v>1494.4</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2491</v>
+      </c>
+      <c r="O57">
+        <v>5716.2</v>
+      </c>
+      <c r="P57">
+        <v>1494.4</v>
+      </c>
+      <c r="Q57">
+        <v>-127</v>
+      </c>
+      <c r="R57">
+        <v>41936</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>3461.3</v>
+      </c>
+      <c r="U57">
+        <v>2905.2</v>
+      </c>
+      <c r="V57">
+        <v>381</v>
+      </c>
+      <c r="W57">
+        <v>-52</v>
+      </c>
+      <c r="X57">
+        <v>-605</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>170</v>
+      </c>
+      <c r="AA57">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42027</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>177</v>
+      </c>
+      <c r="D58">
+        <v>1551</v>
+      </c>
+      <c r="E58">
+        <v>666.3</v>
+      </c>
+      <c r="F58">
+        <v>977</v>
+      </c>
+      <c r="G58">
+        <v>6554.6</v>
+      </c>
+      <c r="H58">
+        <v>9234.7000000000007</v>
+      </c>
+      <c r="I58">
+        <v>194.2</v>
+      </c>
+      <c r="J58">
+        <v>1494.7</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2491.3000000000002</v>
+      </c>
+      <c r="O58">
+        <v>5726.7</v>
+      </c>
+      <c r="P58">
+        <v>1494.7</v>
+      </c>
+      <c r="Q58">
+        <v>-365</v>
+      </c>
+      <c r="R58">
+        <v>42027</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>3508</v>
+      </c>
+      <c r="U58">
+        <v>2539.6999999999998</v>
+      </c>
+      <c r="V58">
+        <v>275</v>
+      </c>
+      <c r="W58">
+        <v>-52</v>
+      </c>
+      <c r="X58">
+        <v>-176</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-320</v>
+      </c>
+      <c r="AA58">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>135</v>
+      </c>
+      <c r="D59">
+        <v>1540</v>
+      </c>
+      <c r="E59">
+        <v>779</v>
+      </c>
+      <c r="F59">
+        <v>935</v>
+      </c>
+      <c r="G59">
+        <v>6773</v>
+      </c>
+      <c r="H59">
+        <v>9401</v>
+      </c>
+      <c r="I59">
+        <v>284</v>
+      </c>
+      <c r="J59">
+        <v>1487</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>2709</v>
+      </c>
+      <c r="O59">
+        <v>5987</v>
+      </c>
+      <c r="P59">
+        <v>1487</v>
+      </c>
+      <c r="Q59">
+        <v>-618</v>
+      </c>
+      <c r="R59">
+        <v>42118</v>
+      </c>
+      <c r="S59">
+        <v>12810</v>
+      </c>
+      <c r="T59">
+        <v>3414</v>
+      </c>
+      <c r="U59">
+        <v>1922</v>
+      </c>
+      <c r="V59">
+        <v>396</v>
+      </c>
+      <c r="W59">
+        <v>-51</v>
+      </c>
+      <c r="X59">
+        <v>-286</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-686</v>
+      </c>
+      <c r="AA59">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42216</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>-30</v>
+      </c>
+      <c r="D60">
+        <v>1335</v>
+      </c>
+      <c r="E60">
+        <v>415</v>
+      </c>
+      <c r="F60">
+        <v>816</v>
+      </c>
+      <c r="G60">
+        <v>6119</v>
+      </c>
+      <c r="H60">
+        <v>8697</v>
+      </c>
+      <c r="I60">
+        <v>249</v>
+      </c>
+      <c r="J60">
+        <v>1488</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2480</v>
+      </c>
+      <c r="O60">
+        <v>5697</v>
+      </c>
+      <c r="P60">
+        <v>1488</v>
+      </c>
+      <c r="Q60">
+        <v>402</v>
+      </c>
+      <c r="R60">
+        <v>42216</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>3000</v>
+      </c>
+      <c r="U60">
+        <v>2324</v>
+      </c>
+      <c r="V60">
+        <v>129</v>
+      </c>
+      <c r="W60">
+        <v>-54</v>
+      </c>
+      <c r="X60">
+        <v>-464</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>778</v>
+      </c>
+      <c r="AA60">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42307</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>114</v>
+      </c>
+      <c r="D61">
+        <v>1445</v>
+      </c>
+      <c r="E61">
+        <v>587</v>
+      </c>
+      <c r="F61">
+        <v>884</v>
+      </c>
+      <c r="G61">
+        <v>6081</v>
+      </c>
+      <c r="H61">
+        <v>8635</v>
+      </c>
+      <c r="I61">
+        <v>226</v>
+      </c>
+      <c r="J61">
+        <v>1489</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>2453</v>
+      </c>
+      <c r="O61">
+        <v>5648</v>
+      </c>
+      <c r="P61">
+        <v>1489</v>
+      </c>
+      <c r="Q61">
+        <v>-126</v>
+      </c>
+      <c r="R61">
+        <v>42307</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>2987</v>
+      </c>
+      <c r="U61">
+        <v>2198</v>
+      </c>
+      <c r="V61">
+        <v>145</v>
+      </c>
+      <c r="W61">
+        <v>-53</v>
+      </c>
+      <c r="X61">
+        <v>-230</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>10</v>
+      </c>
+      <c r="AA61">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42398</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>153</v>
+      </c>
+      <c r="D62">
+        <v>1386</v>
+      </c>
+      <c r="E62">
+        <v>585</v>
+      </c>
+      <c r="F62">
+        <v>855</v>
+      </c>
+      <c r="G62">
+        <v>6064</v>
+      </c>
+      <c r="H62">
+        <v>8785</v>
+      </c>
+      <c r="I62">
+        <v>175</v>
+      </c>
+      <c r="J62">
+        <v>1490</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2476</v>
+      </c>
+      <c r="O62">
+        <v>5676</v>
+      </c>
+      <c r="P62">
+        <v>1490</v>
+      </c>
+      <c r="Q62">
+        <v>297</v>
+      </c>
+      <c r="R62">
+        <v>42398</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>3109</v>
+      </c>
+      <c r="U62">
+        <v>2495</v>
+      </c>
+      <c r="V62">
+        <v>355</v>
+      </c>
+      <c r="W62">
+        <v>-52</v>
+      </c>
+      <c r="X62">
+        <v>-96</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>91</v>
+      </c>
+      <c r="AA62">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42489</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>-8</v>
+      </c>
+      <c r="D63">
+        <v>1380</v>
+      </c>
+      <c r="E63">
+        <v>813</v>
+      </c>
+      <c r="F63">
+        <v>818</v>
+      </c>
+      <c r="G63">
+        <v>6448</v>
+      </c>
+      <c r="H63">
+        <v>10037</v>
+      </c>
+      <c r="I63">
+        <v>254</v>
+      </c>
+      <c r="J63">
+        <v>1490</v>
+      </c>
+      <c r="K63">
+        <v>849</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>3662</v>
+      </c>
+      <c r="O63">
+        <v>7156</v>
+      </c>
+      <c r="P63">
+        <v>2358</v>
+      </c>
+      <c r="Q63">
+        <v>373</v>
+      </c>
+      <c r="R63">
+        <v>42489</v>
+      </c>
+      <c r="S63">
+        <v>12030</v>
+      </c>
+      <c r="T63">
+        <v>2881</v>
+      </c>
+      <c r="U63">
+        <v>2868</v>
+      </c>
+      <c r="V63">
+        <v>345</v>
+      </c>
+      <c r="W63">
+        <v>-51</v>
+      </c>
+      <c r="X63">
+        <v>681</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>103</v>
+      </c>
+      <c r="AA63">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42580</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>64</v>
+      </c>
+      <c r="D64">
+        <v>1294</v>
+      </c>
+      <c r="E64">
+        <v>501</v>
+      </c>
+      <c r="F64">
+        <v>797</v>
+      </c>
+      <c r="G64">
+        <v>5223</v>
+      </c>
+      <c r="H64">
+        <v>8787</v>
+      </c>
+      <c r="I64">
+        <v>239</v>
+      </c>
+      <c r="J64">
+        <v>1491</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>-850</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2524</v>
+      </c>
+      <c r="O64">
+        <v>5995</v>
+      </c>
+      <c r="P64">
+        <v>1491</v>
+      </c>
+      <c r="Q64">
+        <v>-574</v>
+      </c>
+      <c r="R64">
+        <v>42580</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>2792</v>
+      </c>
+      <c r="U64">
+        <v>2294</v>
+      </c>
+      <c r="V64">
+        <v>228</v>
+      </c>
+      <c r="W64">
+        <v>-53</v>
+      </c>
+      <c r="X64">
+        <v>-1071</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>313</v>
+      </c>
+      <c r="AA64">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42671</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>109</v>
+      </c>
+      <c r="D65">
+        <v>1340</v>
+      </c>
+      <c r="E65">
+        <v>547</v>
+      </c>
+      <c r="F65">
+        <v>829</v>
+      </c>
+      <c r="G65">
+        <v>5220</v>
+      </c>
+      <c r="H65">
+        <v>8762</v>
+      </c>
+      <c r="I65">
+        <v>253</v>
+      </c>
+      <c r="J65">
+        <v>1492</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2528</v>
+      </c>
+      <c r="O65">
+        <v>5973</v>
+      </c>
+      <c r="P65">
+        <v>1492</v>
+      </c>
+      <c r="Q65">
+        <v>-181</v>
+      </c>
+      <c r="R65">
+        <v>42671</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>2789</v>
+      </c>
+      <c r="U65">
+        <v>2113</v>
+      </c>
+      <c r="V65">
+        <v>158</v>
+      </c>
+      <c r="W65">
+        <v>-52</v>
+      </c>
+      <c r="X65">
+        <v>-154</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-123</v>
+      </c>
+      <c r="AA65">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42762</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>146</v>
+      </c>
+      <c r="D66">
+        <v>1404</v>
+      </c>
+      <c r="E66">
+        <v>605</v>
+      </c>
+      <c r="F66">
+        <v>851</v>
+      </c>
+      <c r="G66">
+        <v>5646</v>
+      </c>
+      <c r="H66">
+        <v>9055</v>
+      </c>
+      <c r="I66">
+        <v>258</v>
+      </c>
+      <c r="J66">
+        <v>744</v>
+      </c>
+      <c r="K66">
+        <v>392</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>3844</v>
+      </c>
+      <c r="O66">
+        <v>6361</v>
+      </c>
+      <c r="P66">
+        <v>2014</v>
+      </c>
+      <c r="Q66">
+        <v>100</v>
+      </c>
+      <c r="R66">
+        <v>42762</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>2694</v>
+      </c>
+      <c r="U66">
+        <v>2213</v>
+      </c>
+      <c r="V66">
+        <v>235</v>
+      </c>
+      <c r="W66">
+        <v>-52</v>
+      </c>
+      <c r="X66">
+        <v>97</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-188</v>
+      </c>
+      <c r="AA66">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42853</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>190</v>
+      </c>
+      <c r="D67">
+        <v>1481</v>
+      </c>
+      <c r="E67">
+        <v>731</v>
+      </c>
+      <c r="F67">
+        <v>913</v>
+      </c>
+      <c r="G67">
+        <v>6198</v>
+      </c>
+      <c r="H67">
+        <v>9493</v>
+      </c>
+      <c r="I67">
+        <v>347</v>
+      </c>
+      <c r="J67">
+        <v>744</v>
+      </c>
+      <c r="K67">
+        <v>500</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>4122</v>
+      </c>
+      <c r="O67">
+        <v>6713</v>
+      </c>
+      <c r="P67">
+        <v>2123</v>
+      </c>
+      <c r="Q67">
+        <v>231</v>
+      </c>
+      <c r="R67">
+        <v>42853</v>
+      </c>
+      <c r="S67">
+        <v>10100</v>
+      </c>
+      <c r="T67">
+        <v>2780</v>
+      </c>
+      <c r="U67">
+        <v>2444</v>
+      </c>
+      <c r="V67">
+        <v>365</v>
+      </c>
+      <c r="W67">
+        <v>-51</v>
+      </c>
+      <c r="X67">
+        <v>-51</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-45</v>
+      </c>
+      <c r="AA67">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42944</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>131</v>
+      </c>
+      <c r="D68">
+        <v>1321</v>
+      </c>
+      <c r="E68">
+        <v>518</v>
+      </c>
+      <c r="F68">
+        <v>824</v>
+      </c>
+      <c r="G68">
+        <v>6298</v>
+      </c>
+      <c r="H68">
+        <v>9599</v>
+      </c>
+      <c r="I68">
+        <v>289</v>
+      </c>
+      <c r="J68">
+        <v>745</v>
+      </c>
+      <c r="K68">
+        <v>894</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>4287</v>
+      </c>
+      <c r="O68">
+        <v>6831</v>
+      </c>
+      <c r="P68">
+        <v>2518</v>
+      </c>
+      <c r="Q68">
+        <v>503</v>
+      </c>
+      <c r="R68">
+        <v>42944</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>2768</v>
+      </c>
+      <c r="U68">
+        <v>2951</v>
+      </c>
+      <c r="V68">
+        <v>250</v>
+      </c>
+      <c r="W68">
+        <v>-54</v>
+      </c>
+      <c r="X68">
+        <v>181</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>112</v>
+      </c>
+      <c r="AA68">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43035</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>174</v>
+      </c>
+      <c r="D69">
+        <v>1415</v>
+      </c>
+      <c r="E69">
+        <v>584</v>
+      </c>
+      <c r="F69">
+        <v>900</v>
+      </c>
+      <c r="G69">
+        <v>7020</v>
+      </c>
+      <c r="H69">
+        <v>10308</v>
+      </c>
+      <c r="I69">
+        <v>379</v>
+      </c>
+      <c r="J69">
+        <v>1540</v>
+      </c>
+      <c r="K69">
+        <v>718</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>4214</v>
+      </c>
+      <c r="O69">
+        <v>7531</v>
+      </c>
+      <c r="P69">
+        <v>3138</v>
+      </c>
+      <c r="Q69">
+        <v>583</v>
+      </c>
+      <c r="R69">
+        <v>43035</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>2777</v>
+      </c>
+      <c r="U69">
+        <v>3535</v>
+      </c>
+      <c r="V69">
+        <v>314</v>
+      </c>
+      <c r="W69">
+        <v>-54</v>
+      </c>
+      <c r="X69">
+        <v>420</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-64</v>
+      </c>
+      <c r="AA69">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43126</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-479</v>
+      </c>
+      <c r="D70">
+        <v>1539</v>
+      </c>
+      <c r="E70">
+        <v>754</v>
+      </c>
+      <c r="F70">
+        <v>956</v>
+      </c>
+      <c r="G70">
+        <v>6766</v>
+      </c>
+      <c r="H70">
+        <v>9787</v>
+      </c>
+      <c r="I70">
+        <v>458</v>
+      </c>
+      <c r="J70">
+        <v>1540</v>
+      </c>
+      <c r="K70">
+        <v>632</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>3548</v>
+      </c>
+      <c r="O70">
+        <v>7611</v>
+      </c>
+      <c r="P70">
+        <v>2172</v>
+      </c>
+      <c r="Q70">
+        <v>-556</v>
+      </c>
+      <c r="R70">
+        <v>43126</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>2176</v>
+      </c>
+      <c r="U70">
+        <v>2974</v>
+      </c>
+      <c r="V70">
+        <v>420</v>
+      </c>
+      <c r="W70">
+        <v>-53</v>
+      </c>
+      <c r="X70">
+        <v>-951</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-226</v>
+      </c>
+      <c r="AA70">
+        <v>-479</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43217</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>290</v>
+      </c>
+      <c r="D71">
+        <v>1644</v>
+      </c>
+      <c r="E71">
+        <v>1047</v>
+      </c>
+      <c r="F71">
+        <v>1029</v>
+      </c>
+      <c r="G71">
+        <v>6952</v>
+      </c>
+      <c r="H71">
+        <v>9991</v>
+      </c>
+      <c r="I71">
+        <v>609</v>
+      </c>
+      <c r="J71">
+        <v>1541</v>
+      </c>
+      <c r="K71">
+        <v>385</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>3531</v>
+      </c>
+      <c r="O71">
+        <v>7715</v>
+      </c>
+      <c r="P71">
+        <v>1926</v>
+      </c>
+      <c r="Q71">
+        <v>-33</v>
+      </c>
+      <c r="R71">
+        <v>43217</v>
+      </c>
+      <c r="S71">
+        <v>10300</v>
+      </c>
+      <c r="T71">
+        <v>2276</v>
+      </c>
+      <c r="U71">
+        <v>2941</v>
+      </c>
+      <c r="V71">
+        <v>494</v>
+      </c>
+      <c r="W71">
+        <v>-53</v>
+      </c>
+      <c r="X71">
+        <v>-636</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>168</v>
+      </c>
+      <c r="AA71">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43308</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>283</v>
+      </c>
+      <c r="D72">
+        <v>1474</v>
+      </c>
+      <c r="E72">
+        <v>616</v>
+      </c>
+      <c r="F72">
+        <v>963</v>
+      </c>
+      <c r="G72">
+        <v>5853</v>
+      </c>
+      <c r="H72">
+        <v>8905</v>
+      </c>
+      <c r="I72">
+        <v>425</v>
+      </c>
+      <c r="J72">
+        <v>1542</v>
+      </c>
+      <c r="K72">
+        <v>200</v>
+      </c>
+      <c r="L72">
+        <v>-185</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2840</v>
+      </c>
+      <c r="O72">
+        <v>6983</v>
+      </c>
+      <c r="P72">
+        <v>1742</v>
+      </c>
+      <c r="Q72">
+        <v>-314</v>
+      </c>
+      <c r="R72">
+        <v>43308</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>1922</v>
+      </c>
+      <c r="U72">
+        <v>2627</v>
+      </c>
+      <c r="V72">
+        <v>326</v>
+      </c>
+      <c r="W72">
+        <v>-105</v>
+      </c>
+      <c r="X72">
+        <v>-812</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>248</v>
+      </c>
+      <c r="AA72">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43399</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>241</v>
+      </c>
+      <c r="D73">
+        <v>1517</v>
+      </c>
+      <c r="E73">
+        <v>765</v>
+      </c>
+      <c r="F73">
+        <v>974</v>
+      </c>
+      <c r="G73">
+        <v>5471</v>
+      </c>
+      <c r="H73">
+        <v>8551</v>
+      </c>
+      <c r="I73">
+        <v>472</v>
+      </c>
+      <c r="J73">
+        <v>1144</v>
+      </c>
+      <c r="K73">
+        <v>249</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>3310</v>
+      </c>
+      <c r="O73">
+        <v>7021</v>
+      </c>
+      <c r="P73">
+        <v>1792</v>
+      </c>
+      <c r="Q73">
+        <v>-268</v>
+      </c>
+      <c r="R73">
+        <v>43399</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>1530</v>
+      </c>
+      <c r="U73">
+        <v>2359</v>
+      </c>
+      <c r="V73">
+        <v>165</v>
+      </c>
+      <c r="W73">
+        <v>-102</v>
+      </c>
+      <c r="X73">
+        <v>-617</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>241</v>
+      </c>
+      <c r="AA73">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43490</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>249</v>
+      </c>
+      <c r="D74">
+        <v>1563</v>
+      </c>
+      <c r="E74">
+        <v>872</v>
+      </c>
+      <c r="F74">
+        <v>982</v>
+      </c>
+      <c r="G74">
+        <v>5361</v>
+      </c>
+      <c r="H74">
+        <v>8418</v>
+      </c>
+      <c r="I74">
+        <v>497</v>
+      </c>
+      <c r="J74">
+        <v>1144</v>
+      </c>
+      <c r="K74">
+        <v>163</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>3430</v>
+      </c>
+      <c r="O74">
+        <v>7188</v>
+      </c>
+      <c r="P74">
+        <v>1706</v>
+      </c>
+      <c r="Q74">
+        <v>-89</v>
+      </c>
+      <c r="R74">
+        <v>43490</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>1230</v>
+      </c>
+      <c r="U74">
+        <v>2271</v>
+      </c>
+      <c r="V74">
+        <v>451</v>
+      </c>
+      <c r="W74">
+        <v>-99</v>
+      </c>
+      <c r="X74">
+        <v>-688</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>172</v>
+      </c>
+      <c r="AA74">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>396</v>
+      </c>
+      <c r="D75">
+        <v>1592</v>
+      </c>
+      <c r="E75">
+        <v>1216</v>
+      </c>
+      <c r="F75">
+        <v>1026</v>
+      </c>
+      <c r="G75">
+        <v>5610</v>
+      </c>
+      <c r="H75">
+        <v>8741</v>
+      </c>
+      <c r="I75">
+        <v>542</v>
+      </c>
+      <c r="J75">
+        <v>1144</v>
+      </c>
+      <c r="K75">
+        <v>249</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>3867</v>
+      </c>
+      <c r="O75">
+        <v>7651</v>
+      </c>
+      <c r="P75">
+        <v>1793</v>
+      </c>
+      <c r="Q75">
+        <v>55</v>
+      </c>
+      <c r="R75">
+        <v>43581</v>
+      </c>
+      <c r="S75">
+        <v>10500</v>
+      </c>
+      <c r="T75">
+        <v>1090</v>
+      </c>
+      <c r="U75">
+        <v>2325</v>
+      </c>
+      <c r="V75">
+        <v>399</v>
+      </c>
+      <c r="W75">
+        <v>-97</v>
+      </c>
+      <c r="X75">
+        <v>-514</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>215</v>
+      </c>
+      <c r="AA75">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43672</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>103</v>
+      </c>
+      <c r="D76">
+        <v>1236</v>
+      </c>
+      <c r="E76">
+        <v>542</v>
+      </c>
+      <c r="F76">
+        <v>816</v>
+      </c>
+      <c r="G76">
+        <v>4516</v>
+      </c>
+      <c r="H76">
+        <v>7811</v>
+      </c>
+      <c r="I76">
+        <v>348</v>
+      </c>
+      <c r="J76">
+        <v>1145</v>
+      </c>
+      <c r="K76">
+        <v>30</v>
+      </c>
+      <c r="L76">
+        <v>-219</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>3175</v>
+      </c>
+      <c r="O76">
+        <v>6948</v>
+      </c>
+      <c r="P76">
+        <v>1726</v>
+      </c>
+      <c r="Q76">
+        <v>642</v>
+      </c>
+      <c r="R76">
+        <v>43672</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>863</v>
+      </c>
+      <c r="U76">
+        <v>2967</v>
+      </c>
+      <c r="V76">
+        <v>310</v>
+      </c>
+      <c r="W76">
+        <v>-115</v>
+      </c>
+      <c r="X76">
+        <v>-603</v>
+      </c>
+      <c r="Y76">
+        <v>100</v>
+      </c>
+      <c r="Z76">
+        <v>1027</v>
+      </c>
+      <c r="AA76">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43763</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>243</v>
+      </c>
+      <c r="D77">
+        <v>1371</v>
+      </c>
+      <c r="E77">
+        <v>780</v>
+      </c>
+      <c r="F77">
+        <v>925</v>
+      </c>
+      <c r="G77">
+        <v>4191</v>
+      </c>
+      <c r="H77">
+        <v>7472</v>
+      </c>
+      <c r="I77">
+        <v>382</v>
+      </c>
+      <c r="J77">
+        <v>1145</v>
+      </c>
+      <c r="K77">
+        <v>498</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>3204</v>
+      </c>
+      <c r="O77">
+        <v>6936</v>
+      </c>
+      <c r="P77">
+        <v>1794</v>
+      </c>
+      <c r="Q77">
+        <v>-422</v>
+      </c>
+      <c r="R77">
+        <v>43763</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>536</v>
+      </c>
+      <c r="U77">
+        <v>2545</v>
+      </c>
+      <c r="V77">
+        <v>-53</v>
+      </c>
+      <c r="W77">
+        <v>-111</v>
+      </c>
+      <c r="X77">
+        <v>-545</v>
+      </c>
+      <c r="Y77">
+        <v>102</v>
+      </c>
+      <c r="Z77">
+        <v>119</v>
+      </c>
+      <c r="AA77">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>277</v>
+      </c>
+      <c r="D78">
+        <v>1404</v>
+      </c>
+      <c r="E78">
+        <v>821</v>
+      </c>
+      <c r="F78">
+        <v>941</v>
+      </c>
+      <c r="G78">
+        <v>4218</v>
+      </c>
+      <c r="H78">
+        <v>7483</v>
+      </c>
+      <c r="I78">
+        <v>381</v>
+      </c>
+      <c r="J78">
+        <v>1146</v>
+      </c>
+      <c r="K78">
+        <v>693</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>3529</v>
+      </c>
+      <c r="O78">
+        <v>7201</v>
+      </c>
+      <c r="P78">
+        <v>1988</v>
+      </c>
+      <c r="Q78">
+        <v>160</v>
+      </c>
+      <c r="R78">
+        <v>43854</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>282</v>
+      </c>
+      <c r="U78">
+        <v>2705</v>
+      </c>
+      <c r="V78">
+        <v>420</v>
+      </c>
+      <c r="W78">
+        <v>-108</v>
+      </c>
+      <c r="X78">
+        <v>-372</v>
+      </c>
+      <c r="Y78">
+        <v>99</v>
+      </c>
+      <c r="Z78">
+        <v>142</v>
+      </c>
+      <c r="AA78">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>196</v>
+      </c>
+      <c r="D79">
+        <v>1401</v>
+      </c>
+      <c r="E79">
+        <v>973</v>
+      </c>
+      <c r="F79">
+        <v>941</v>
+      </c>
+      <c r="G79">
+        <v>4274</v>
+      </c>
+      <c r="H79">
+        <v>7522</v>
+      </c>
+      <c r="I79">
+        <v>426</v>
+      </c>
+      <c r="J79">
+        <v>1146</v>
+      </c>
+      <c r="K79">
+        <v>522</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>3616</v>
+      </c>
+      <c r="O79">
+        <v>7280</v>
+      </c>
+      <c r="P79">
+        <v>1812</v>
+      </c>
+      <c r="Q79">
+        <v>-45</v>
+      </c>
+      <c r="R79">
+        <v>43945</v>
+      </c>
+      <c r="S79">
+        <v>10800</v>
+      </c>
+      <c r="T79">
+        <v>242</v>
+      </c>
+      <c r="U79">
+        <v>2658</v>
+      </c>
+      <c r="V79">
+        <v>383</v>
+      </c>
+      <c r="W79">
+        <v>-105</v>
+      </c>
+      <c r="X79">
+        <v>-440</v>
+      </c>
+      <c r="Y79">
+        <v>93</v>
+      </c>
+      <c r="Z79">
+        <v>82</v>
+      </c>
+      <c r="AA79">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>77</v>
+      </c>
+      <c r="D80">
+        <v>1303</v>
+      </c>
+      <c r="E80">
+        <v>604</v>
+      </c>
+      <c r="F80">
+        <v>872</v>
+      </c>
+      <c r="G80">
+        <v>4817</v>
+      </c>
+      <c r="H80">
+        <v>8416</v>
+      </c>
+      <c r="I80">
+        <v>396</v>
+      </c>
+      <c r="J80">
+        <v>2630</v>
+      </c>
+      <c r="K80">
+        <v>150</v>
+      </c>
+      <c r="L80">
+        <v>-370</v>
+      </c>
+      <c r="M80">
+        <v>-589</v>
+      </c>
+      <c r="N80">
+        <v>2976</v>
+      </c>
+      <c r="O80">
+        <v>8132</v>
+      </c>
+      <c r="P80">
+        <v>2922</v>
+      </c>
+      <c r="Q80">
+        <v>975</v>
+      </c>
+      <c r="R80">
+        <v>44043</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>284</v>
+      </c>
+      <c r="U80">
+        <v>3633</v>
+      </c>
+      <c r="V80">
+        <v>240</v>
+      </c>
+      <c r="W80">
+        <v>-107</v>
+      </c>
+      <c r="X80">
+        <v>1003</v>
+      </c>
+      <c r="Y80">
+        <v>90</v>
+      </c>
+      <c r="Z80">
+        <v>85</v>
+      </c>
+      <c r="AA80">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>137</v>
+      </c>
+      <c r="D81">
+        <v>1416</v>
+      </c>
+      <c r="E81">
+        <v>796</v>
+      </c>
+      <c r="F81">
+        <v>933</v>
+      </c>
+      <c r="G81">
+        <v>4821</v>
+      </c>
+      <c r="H81">
+        <v>8420</v>
+      </c>
+      <c r="I81">
+        <v>367</v>
+      </c>
+      <c r="J81">
+        <v>2631</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2920</v>
+      </c>
+      <c r="O81">
+        <v>8050</v>
+      </c>
+      <c r="P81">
+        <v>2767</v>
+      </c>
+      <c r="Q81">
+        <v>-105</v>
+      </c>
+      <c r="R81">
+        <v>44134</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>370</v>
+      </c>
+      <c r="U81">
+        <v>3529</v>
+      </c>
+      <c r="V81">
+        <v>161</v>
+      </c>
+      <c r="W81">
+        <v>-107</v>
+      </c>
+      <c r="X81">
+        <v>-257</v>
+      </c>
+      <c r="Y81">
+        <v>84</v>
+      </c>
+      <c r="Z81">
+        <v>22</v>
+      </c>
+      <c r="AA81">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>182</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1470</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>799</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>975</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>5114</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>8686</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>336</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>2632</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>3050</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>8208</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>2758</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>278</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44225</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>478</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>3808</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>373</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-107</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-122</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>76</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>33</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>182</v>
       </c>
     </row>
